--- a/data/checkpoints/fully_preprocessed_item_names.xlsx
+++ b/data/checkpoints/fully_preprocessed_item_names.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Intepretable</t>
+          <t>Interpretable</t>
         </is>
       </c>
     </row>
@@ -6737,19 +6737,19 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>hdg grating plain open ends panels mesh sizes center to</t>
+          <t>hdg grating plain open ends panels mesh sizes center</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>hdg grating plain open ends panels mesh sizes center to</t>
+          <t>hdg grating plain open ends panels mesh sizes center</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>hdg grating plain open ends panels mesh sizes center to</t>
+          <t>hdg grating plain open ends panels mesh sizes center</t>
         </is>
       </c>
     </row>
@@ -6761,19 +6761,19 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>hdg angel long with holes</t>
+          <t>hdg angel long holes</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>hdg angel long with holes</t>
+          <t>hdg angel long holes</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>hdg angel long with holes</t>
+          <t>hdg angel long holes</t>
         </is>
       </c>
     </row>
@@ -6905,19 +6905,19 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>hdg grating plain open ends panels mesh sizes center to</t>
+          <t>hdg grating plain open ends panels mesh sizes center</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>hdg grating plain open ends panels mesh sizes center to</t>
+          <t>hdg grating plain open ends panels mesh sizes center</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>hdg grating plain open ends panels mesh sizes center to</t>
+          <t>hdg grating plain open ends panels mesh sizes center</t>
         </is>
       </c>
     </row>
@@ -6929,19 +6929,19 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>hdg angel long with holes</t>
+          <t>hdg angel long holes</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>hdg angel long with holes</t>
+          <t>hdg angel long holes</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>hdg angel long with holes</t>
+          <t>hdg angel long holes</t>
         </is>
       </c>
     </row>
@@ -7097,19 +7097,19 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>hdg plate with holes</t>
+          <t>hdg plate holes</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>hdg plate with holes</t>
+          <t>hdg plate holes</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>hdg plate with holes</t>
+          <t>hdg plate holes</t>
         </is>
       </c>
     </row>
@@ -7241,19 +7241,19 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>hdg angel length cutting as rails welded with anchor bar long</t>
+          <t>hdg angel length cutting rails welded anchor bar long</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>hdg angel length cutting as rails welded with anchor bar long</t>
+          <t>hdg angel length cutting rails welded anchor bar long</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>hdg angel length cutting as rails welded with anchor bar long</t>
+          <t>hdg angel length cutting rails welded anchor bar long</t>
         </is>
       </c>
     </row>
@@ -7385,19 +7385,19 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>hdg angel length cutting as rails welded with anchor bar long</t>
+          <t>hdg angel length cutting rails welded anchor bar long</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>hdg angel length cutting as rails welded with anchor bar long</t>
+          <t>hdg angel length cutting rails welded anchor bar long</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>hdg angel length cutting as rails welded with anchor bar long</t>
+          <t>hdg angel length cutting rails welded anchor bar long</t>
         </is>
       </c>
     </row>
@@ -7553,19 +7553,19 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>hdg plate with holes</t>
+          <t>hdg plate holes</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
-          <t>hdg plate with holes</t>
+          <t>hdg plate holes</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>hdg plate with holes</t>
+          <t>hdg plate holes</t>
         </is>
       </c>
     </row>
@@ -7601,19 +7601,19 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>astm src screed max agg size is</t>
+          <t>astm src screed max agg size</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
-          <t>astm src screed max agg size is</t>
+          <t>astm src screed max agg size</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>astm src screed max agg size is</t>
+          <t>astm src screed max agg size</t>
         </is>
       </c>
     </row>
@@ -7625,19 +7625,19 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>astm src blending max agg size is</t>
+          <t>astm src blending max agg size</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>astm src blending max agg size is</t>
+          <t>astm src blending max agg size</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>astm src blending max agg size is</t>
+          <t>astm src blending max agg size</t>
         </is>
       </c>
     </row>
@@ -7649,19 +7649,19 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>astm src structural concrete max agg size is</t>
+          <t>astm src structural concrete max agg size</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
-          <t>astm src structural concrete max agg size is</t>
+          <t>astm src structural concrete max agg size</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>astm src structural concrete max agg size is</t>
+          <t>astm src structural concrete max agg size</t>
         </is>
       </c>
     </row>
@@ -8129,19 +8129,19 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>مسك ستركتشر ماستر اسود master italy cremone for facade pcs</t>
+          <t>مسك ستركتشر ماستر اسود master italy cremone facade pcs</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
-          <t>مسك ستركتشر ماستر اسود master italy cremone for facade pcs</t>
+          <t>مسك ستركتشر ماستر اسود master italy cremone facade pcs</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>مسك سترك ماستر اسود master italy cremone for facade pcs</t>
+          <t>مسك سترك ماستر اسود master italy cremone facade pcs</t>
         </is>
       </c>
     </row>
@@ -8153,19 +8153,19 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ذراع ستركشر giesse hd top hung</t>
+          <t>ذراع ستركشر giesse hd hung</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ذراع ستركشر giesse hd top hung</t>
+          <t>ذراع ستركشر giesse hd hung</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>ذراع سترك giesse hd top hung</t>
+          <t>ذراع سترك giesse hd hung</t>
         </is>
       </c>
     </row>
@@ -8561,19 +8561,19 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>way rmu outdoor lucy sf insulated kv as per sec ea</t>
+          <t>way rmu outdoor lucy sf insulated kv sec ea</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
-          <t>way rmu outdoor lucy sf insulated kv as per sec ea</t>
+          <t>way rmu outdoor lucy sf insulated kv sec ea</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>way rmu outdoor lucy sf insulated kv as per sec ea</t>
+          <t>way rmu outdoor lucy sf insulated kv sec ea</t>
         </is>
       </c>
     </row>
@@ -8585,19 +8585,19 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>fire pump ul fm approved electric diesel jockey capacity gpm bar complete with control</t>
+          <t>pump ul fm approved electric diesel jockey capacity gpm bar complete control</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr">
         <is>
-          <t>fire pump ul fm approved electric diesel jockey capacity gpm bar complete with control</t>
+          <t>pump ul fm approved electric diesel jockey capacity gpm bar complete control</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>fire pump ul fm approved electric diesel jockey capacity gpm bar complete with control</t>
+          <t>pump ul fm approved electric diesel jockey capacity gpm bar complete control</t>
         </is>
       </c>
     </row>
@@ -8609,19 +8609,19 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>tx kva kv dyn hz onan cu hv lv winding sec standard with the main breaker un</t>
+          <t>tx kva kv dyn hz onan cu hv lv winding sec standard main breaker</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
-          <t>tx kva kv dyn hz onan cu hv lv winding sec standard with the main breaker un</t>
+          <t>tx kva kv dyn hz onan cu hv lv winding sec standard main breaker</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>tx kva kv dyn hz onan cu hv lv winding sec standard with the main breaker un</t>
+          <t>tx kva kv dyn hz onan cu hv lv winding sec standard main breaker</t>
         </is>
       </c>
     </row>
@@ -8633,19 +8633,19 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>supply of exhaust fresh and pressurization fan as per approval lot</t>
+          <t>supply exhaust fresh pressurization fan approval lot</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
-          <t>supply of exhaust fresh and pressurization fan as per approval lot</t>
+          <t>supply exhaust fresh pressurization fan approval lot</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>supply of exhaust fresh and pressurization fan as per approval lot</t>
+          <t>supply exhaust fresh pressurization fan approval lot</t>
         </is>
       </c>
     </row>
@@ -8873,19 +8873,19 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>roll up door white with motor genus</t>
+          <t>roll door white motor genus</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr">
         <is>
-          <t>roll up door white with motor genus</t>
+          <t>roll door white motor genus</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>roll up door white with motor genus</t>
+          <t>roll door white motor genus</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9168,12 @@
       <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
     </row>
@@ -9281,19 +9281,19 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>hollow core slab thick</t>
+          <t>hollow core slab</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr">
         <is>
-          <t>hollow core slab thick</t>
+          <t>hollow core slab</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>hollow core slab thick</t>
+          <t>hollow core slab</t>
         </is>
       </c>
     </row>
@@ -9312,12 +9312,12 @@
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr">
         <is>
-          <t>hr sheet sabic</t>
+          <t>hr sheet سابك</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>hr sheet sabic</t>
+          <t>hr sheet سابك</t>
         </is>
       </c>
     </row>
@@ -9336,12 +9336,12 @@
       <c r="D371" t="inlineStr"/>
       <c r="E371" t="inlineStr">
         <is>
-          <t>hr sheet sabic</t>
+          <t>hr sheet سابك</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>hr sheet sabic</t>
+          <t>hr sheet سابك</t>
         </is>
       </c>
     </row>
@@ -9360,12 +9360,12 @@
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr">
         <is>
-          <t>hr coil sabic</t>
+          <t>hr coil سابك</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>hr coil sabic</t>
+          <t>hr coil سابك</t>
         </is>
       </c>
     </row>
@@ -9384,12 +9384,12 @@
       <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr">
         <is>
-          <t>hr sheet sabic</t>
+          <t>hr sheet سابك</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>hr sheet sabic</t>
+          <t>hr sheet سابك</t>
         </is>
       </c>
     </row>
@@ -9408,12 +9408,12 @@
       <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr">
         <is>
-          <t>hr coil sabic</t>
+          <t>hr coil سابك</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>hr coil sabic</t>
+          <t>hr coil سابك</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr">
         <is>
-          <t>coil hr sabic slitting</t>
+          <t>coil hr سابك slitting</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>coil hr sabic slitting</t>
+          <t>coil hr سابك slitting</t>
         </is>
       </c>
     </row>
@@ -9456,12 +9456,12 @@
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr">
         <is>
-          <t>sheet gi sabic</t>
+          <t>sheet gi سابك</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>sheet gi sabic</t>
+          <t>sheet gi سابك</t>
         </is>
       </c>
     </row>
@@ -9480,12 +9480,12 @@
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr">
         <is>
-          <t>coil hr sabic slitting</t>
+          <t>coil hr سابك slitting</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>coil hr sabic slitting</t>
+          <t>coil hr سابك slitting</t>
         </is>
       </c>
     </row>
@@ -9977,19 +9977,19 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>hollow core slab thick</t>
+          <t>hollow core slab</t>
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr">
         <is>
-          <t>hollow core slab thick</t>
+          <t>hollow core slab</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>hollow core slab thick</t>
+          <t>hollow core slab</t>
         </is>
       </c>
     </row>
@@ -10001,19 +10001,19 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>shurfa villa erection only</t>
+          <t>shurfa villa erection</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr"/>
       <c r="E399" t="inlineStr">
         <is>
-          <t>shurfa villa erection only</t>
+          <t>shurfa villa erection</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>shurfa villa erection only</t>
+          <t>shurfa villa erection</t>
         </is>
       </c>
     </row>
@@ -10025,19 +10025,19 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>home villa erection only</t>
+          <t>home villa erection</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr">
         <is>
-          <t>home villa erection only</t>
+          <t>home villa erection</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>home villa erection only</t>
+          <t>home villa erection</t>
         </is>
       </c>
     </row>
@@ -10049,19 +10049,19 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>welding spray as each</t>
+          <t>welding spray</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr">
         <is>
-          <t>welding spray as each</t>
+          <t>welding spray</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>welding spray as each</t>
+          <t>welding spray</t>
         </is>
       </c>
     </row>
@@ -10073,19 +10073,19 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>sanding disc grit each</t>
+          <t>sanding disc grit</t>
         </is>
       </c>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr">
         <is>
-          <t>sanding disc grit each</t>
+          <t>sanding disc grit</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>sanding disc grit each</t>
+          <t>sanding disc grit</t>
         </is>
       </c>
     </row>
@@ -10097,19 +10097,19 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>latch hinge each</t>
+          <t>latch hinge</t>
         </is>
       </c>
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr">
         <is>
-          <t>latch hinge each</t>
+          <t>latch hinge</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>latch hinge each</t>
+          <t>latch hinge</t>
         </is>
       </c>
     </row>
@@ -10121,19 +10121,19 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
     </row>
@@ -10145,19 +10145,19 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>self drilling flat head screw as per sample each</t>
+          <t>self drilling flat head screw sample</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr">
         <is>
-          <t>self drilling flat head screw as per sample each</t>
+          <t>self drilling flat head screw sample</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>self drilling flat head screw as per sample each</t>
+          <t>self drilling flat head screw sample</t>
         </is>
       </c>
     </row>
@@ -10169,19 +10169,19 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>self drilling screw each</t>
+          <t>self drilling screw</t>
         </is>
       </c>
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr">
         <is>
-          <t>self drilling screw each</t>
+          <t>self drilling screw</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>self drilling screw each</t>
+          <t>self drilling screw</t>
         </is>
       </c>
     </row>
@@ -10193,19 +10193,19 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>starch roll for wrapping big</t>
+          <t>starch roll wrapping big</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr">
         <is>
-          <t>starch roll for wrapping big</t>
+          <t>starch roll wrapping big</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>starch roll for wrapping big</t>
+          <t>starch roll wrapping big</t>
         </is>
       </c>
     </row>
@@ -10241,19 +10241,19 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>nut each</t>
+          <t>nut</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr">
         <is>
-          <t>nut each</t>
+          <t>nut</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>nut each</t>
+          <t>nut</t>
         </is>
       </c>
     </row>
@@ -10265,19 +10265,19 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>grinding disc heavy duty each</t>
+          <t>grinding disc heavy duty</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr">
         <is>
-          <t>grinding disc heavy duty each</t>
+          <t>grinding disc heavy duty</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>grinding disc heavy duty each</t>
+          <t>grinding disc heavy duty</t>
         </is>
       </c>
     </row>
@@ -10289,19 +10289,19 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>sanding disc plastic pad each</t>
+          <t>sanding disc plastic pad</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr">
         <is>
-          <t>sanding disc plastic pad each</t>
+          <t>sanding disc plastic pad</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>sanding disc plastic pad each</t>
+          <t>sanding disc plastic pad</t>
         </is>
       </c>
     </row>
@@ -10313,19 +10313,19 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>sinck screw each</t>
+          <t>sinck screw</t>
         </is>
       </c>
       <c r="C412" t="inlineStr"/>
       <c r="D412" t="inlineStr"/>
       <c r="E412" t="inlineStr">
         <is>
-          <t>sinck screw each</t>
+          <t>sinck screw</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>sinck screw each</t>
+          <t>sinck screw</t>
         </is>
       </c>
     </row>
@@ -10337,19 +10337,19 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
     </row>
@@ -10361,19 +10361,19 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>self drilling flat head screw black each</t>
+          <t>self drilling flat head screw black</t>
         </is>
       </c>
       <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
-          <t>self drilling flat head screw black each</t>
+          <t>self drilling flat head screw black</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>self drilling flat head screw black each</t>
+          <t>self drilling flat head screw black</t>
         </is>
       </c>
     </row>
@@ -10385,19 +10385,19 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
     </row>
@@ -10409,19 +10409,19 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>pu foam thick roll</t>
+          <t>pu foam roll</t>
         </is>
       </c>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>pu foam thick roll</t>
+          <t>pu foam roll</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>pu foam thick roll</t>
+          <t>pu foam roll</t>
         </is>
       </c>
     </row>
@@ -10433,19 +10433,19 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>allen screw each</t>
+          <t>allen screw</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>allen screw each</t>
+          <t>allen screw</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>allen screw each</t>
+          <t>allen screw</t>
         </is>
       </c>
     </row>
@@ -10457,19 +10457,19 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>chain as per sample</t>
+          <t>chain sample</t>
         </is>
       </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>chain as per sample</t>
+          <t>chain sample</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>chain as per sample</t>
+          <t>chain sample</t>
         </is>
       </c>
     </row>
@@ -10481,19 +10481,19 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>flap disc grit each</t>
+          <t>flap disc grit</t>
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>flap disc grit each</t>
+          <t>flap disc grit</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>flap disc grit each</t>
+          <t>flap disc grit</t>
         </is>
       </c>
     </row>
@@ -10505,19 +10505,19 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>rockwool as per our regular supply each</t>
+          <t>rockwool regular supply</t>
         </is>
       </c>
       <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>rockwool as per our regular supply each</t>
+          <t>rockwool regular supply</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>rockwool as per our regular supply each</t>
+          <t>rockwool regular supply</t>
         </is>
       </c>
     </row>
@@ -10529,19 +10529,19 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>sinko screw each</t>
+          <t>sinko screw</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>sinko screw each</t>
+          <t>sinko screw</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>sinko screw each</t>
+          <t>sinko screw</t>
         </is>
       </c>
     </row>
@@ -10577,19 +10577,19 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>flat head self drilling screw as per sample each</t>
+          <t>flat head self drilling screw sample</t>
         </is>
       </c>
       <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>flat head self drilling screw as per sample each</t>
+          <t>flat head self drilling screw sample</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>flat head self drilling screw as per sample each</t>
+          <t>flat head self drilling screw sample</t>
         </is>
       </c>
     </row>
@@ -10601,19 +10601,19 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
     </row>
@@ -10625,19 +10625,19 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>pu foam thick as per previous supply roll</t>
+          <t>pu foam previous supply roll</t>
         </is>
       </c>
       <c r="C425" t="inlineStr"/>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>pu foam thick as per previous supply roll</t>
+          <t>pu foam previous supply roll</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>pu foam thick as per previous supply roll</t>
+          <t>pu foam previous supply roll</t>
         </is>
       </c>
     </row>
@@ -10649,19 +10649,19 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>nylon nut each</t>
+          <t>nylon nut</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>nylon nut each</t>
+          <t>nylon nut</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>nylon nut each</t>
+          <t>nylon nut</t>
         </is>
       </c>
     </row>
@@ -10673,19 +10673,19 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>lock with triangle key each</t>
+          <t>lock triangle key</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>lock with triangle key each</t>
+          <t>lock triangle key</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>lock with triangle key each</t>
+          <t>lock triangle key</t>
         </is>
       </c>
     </row>
@@ -10721,19 +10721,19 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>cutting disc total each</t>
+          <t>cutting disc total</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>cutting disc total each</t>
+          <t>cutting disc total</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>cutting disc total each</t>
+          <t>cutting disc total</t>
         </is>
       </c>
     </row>
@@ -10745,19 +10745,19 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>hand lock each</t>
+          <t>hand lock</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>hand lock each</t>
+          <t>hand lock</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>hand lock each</t>
+          <t>hand lock</t>
         </is>
       </c>
     </row>
@@ -10769,19 +10769,19 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>anchor bolt each</t>
+          <t>anchor bolt</t>
         </is>
       </c>
     </row>
@@ -10793,19 +10793,19 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>csk screw each</t>
+          <t>csk screw</t>
         </is>
       </c>
       <c r="C432" t="inlineStr"/>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>csk screw each</t>
+          <t>csk screw</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>csk screw each</t>
+          <t>csk screw</t>
         </is>
       </c>
     </row>
@@ -10817,19 +10817,19 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>washer each</t>
+          <t>washer</t>
         </is>
       </c>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>washer each</t>
+          <t>washer</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>washer each</t>
+          <t>washer</t>
         </is>
       </c>
     </row>
@@ -10841,19 +10841,19 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>rubber cap each</t>
+          <t>rubber cap</t>
         </is>
       </c>
     </row>
@@ -10889,19 +10889,19 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>screw flat head each</t>
+          <t>screw flat head</t>
         </is>
       </c>
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>screw flat head each</t>
+          <t>screw flat head</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>screw flat head each</t>
+          <t>screw flat head</t>
         </is>
       </c>
     </row>
@@ -11033,19 +11033,19 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>لوح استان ستيل مجل no</t>
+          <t>لوح استان ستيل مجل</t>
         </is>
       </c>
     </row>
@@ -11304,12 +11304,12 @@
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
     </row>
@@ -11328,12 +11328,12 @@
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
     </row>
@@ -11352,12 +11352,12 @@
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>reinforcing steel bar sabic</t>
+          <t>reinforcing steel bar سابك</t>
         </is>
       </c>
     </row>
@@ -13385,19 +13385,19 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>لوح استان ستيل مجل no</t>
+          <t>لوح استان ستيل مجل</t>
         </is>
       </c>
     </row>
@@ -13409,19 +13409,19 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>لوح استان ستيل مجل no</t>
+          <t>لوح استان ستيل مجل</t>
         </is>
       </c>
     </row>
@@ -14297,19 +14297,19 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>threded rod fixed with duct including nut washer</t>
+          <t>threded rod fixed duct including nut washer</t>
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
       <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr">
         <is>
-          <t>threded rod fixed with duct including nut washer</t>
+          <t>threded rod fixed duct including nut washer</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>threde rod fixed with duct including nut washer</t>
+          <t>threde rod fixed duct including nut washer</t>
         </is>
       </c>
     </row>
@@ -14321,19 +14321,19 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>bolt nut and washer</t>
+          <t>bolt nut washer</t>
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
       <c r="D579" t="inlineStr"/>
       <c r="E579" t="inlineStr">
         <is>
-          <t>bolt nut and washer</t>
+          <t>bolt nut washer</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>bolt nut and washer</t>
+          <t>bolt nut washer</t>
         </is>
       </c>
     </row>
@@ -14369,19 +14369,19 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>galvanized angle bar fixed with duct</t>
+          <t>galvanized angle bar fixed duct</t>
         </is>
       </c>
       <c r="C581" t="inlineStr"/>
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr">
         <is>
-          <t>galvanized angle bar fixed with duct</t>
+          <t>galvanized angle bar fixed duct</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>galvanized angle bar fixed with duct</t>
+          <t>galvanized angle bar fixed duct</t>
         </is>
       </c>
     </row>
@@ -14393,19 +14393,19 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>wire mesh with frame</t>
+          <t>wire mesh frame</t>
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr">
         <is>
-          <t>wire mesh with frame</t>
+          <t>wire mesh frame</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>wire mesh with frame</t>
+          <t>wire mesh frame</t>
         </is>
       </c>
     </row>
@@ -14417,19 +14417,19 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>duct fabrication from steel</t>
+          <t>duct fabrication steel</t>
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr">
         <is>
-          <t>duct fabrication from steel</t>
+          <t>duct fabrication steel</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>duct fabrication from steel</t>
+          <t>duct fabrication steel</t>
         </is>
       </c>
     </row>
@@ -14465,19 +14465,19 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>threded rod fixed with duct including nut washer</t>
+          <t>threded rod fixed duct including nut washer</t>
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>threded rod fixed with duct including nut washer</t>
+          <t>threded rod fixed duct including nut washer</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>threde rod fixed with duct including nut washer</t>
+          <t>threde rod fixed duct including nut washer</t>
         </is>
       </c>
     </row>
@@ -14537,19 +14537,19 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>galvanized angle bar fixed with duct</t>
+          <t>galvanized angle bar fixed duct</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>galvanized angle bar fixed with duct</t>
+          <t>galvanized angle bar fixed duct</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>galvanized angle bar fixed with duct</t>
+          <t>galvanized angle bar fixed duct</t>
         </is>
       </c>
     </row>
@@ -14561,19 +14561,19 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>bolt nut and washer</t>
+          <t>bolt nut washer</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>bolt nut and washer</t>
+          <t>bolt nut washer</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>bolt nut and washer</t>
+          <t>bolt nut washer</t>
         </is>
       </c>
     </row>
@@ -14753,19 +14753,19 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="C597" t="inlineStr"/>
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>weic strap model us</t>
+          <t>weic strap model</t>
         </is>
       </c>
     </row>
@@ -14921,19 +14921,19 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>weic strap model us</t>
+          <t>weic strap model</t>
         </is>
       </c>
     </row>
@@ -15089,19 +15089,19 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="C611" t="inlineStr"/>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>weic strap model us</t>
+          <t>weic strap model</t>
         </is>
       </c>
     </row>
@@ -15257,19 +15257,19 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="C618" t="inlineStr"/>
       <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr">
         <is>
-          <t>weicco strap model us</t>
+          <t>weicco strap model</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>weic strap model us</t>
+          <t>weic strap model</t>
         </is>
       </c>
     </row>
@@ -15281,19 +15281,19 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>roof top structure rail high length</t>
+          <t>roof structure rail high length</t>
         </is>
       </c>
       <c r="C619" t="inlineStr"/>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr">
         <is>
-          <t>roof top structure rail high length</t>
+          <t>roof structure rail high length</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>roof top structure rail high length</t>
+          <t>roof structure rail high length</t>
         </is>
       </c>
     </row>
@@ -15305,19 +15305,19 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>roof top structure end clamp for thickness solar panel</t>
+          <t>roof structure end clamp thickness solar panel</t>
         </is>
       </c>
       <c r="C620" t="inlineStr"/>
       <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr">
         <is>
-          <t>roof top structure end clamp for thickness solar panel</t>
+          <t>roof structure end clamp thickness solar panel</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>roof top structure end clamp for thickness solar panel</t>
+          <t>roof structure end clamp thickness solar panel</t>
         </is>
       </c>
     </row>
@@ -15329,19 +15329,19 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>roof top structure</t>
+          <t>roof structure</t>
         </is>
       </c>
       <c r="C621" t="inlineStr"/>
       <c r="D621" t="inlineStr"/>
       <c r="E621" t="inlineStr">
         <is>
-          <t>roof top structure</t>
+          <t>roof structure</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>roof top structure</t>
+          <t>roof structure</t>
         </is>
       </c>
     </row>
@@ -15353,19 +15353,19 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>roof top structure splice connector grop</t>
+          <t>roof structure splice connector grop</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr">
         <is>
-          <t>roof top structure splice connector grop</t>
+          <t>roof structure splice connector grop</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>roof top structure splice connector grop</t>
+          <t>roof structure splice connector grop</t>
         </is>
       </c>
     </row>
@@ -15377,19 +15377,19 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>delivery to port</t>
+          <t>delivery port</t>
         </is>
       </c>
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr">
         <is>
-          <t>delivery to port</t>
+          <t>delivery port</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>delivery to port</t>
+          <t>delivery port</t>
         </is>
       </c>
     </row>
@@ -15401,19 +15401,19 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>roof top structure mid clamp for thickness solar panel</t>
+          <t>roof structure mid clamp thickness solar panel</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr"/>
       <c r="E624" t="inlineStr">
         <is>
-          <t>roof top structure mid clamp for thickness solar panel</t>
+          <t>roof structure mid clamp thickness solar panel</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>roof top structure mid clamp for thickness solar panel</t>
+          <t>roof structure mid clamp thickness solar panel</t>
         </is>
       </c>
     </row>
@@ -15665,19 +15665,19 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>trina solar panels mono perc de model watt</t>
+          <t>trina solar panels mono perc model watt</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
-          <t>trina solar panels mono perc de model watt</t>
+          <t>trina solar panels mono perc model watt</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>trina solar panels mono perc de model watt</t>
+          <t>trina solar panels mono perc model watt</t>
         </is>
       </c>
     </row>
@@ -17249,19 +17249,19 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>fire retardant eps wavy panels psm density including disscount</t>
+          <t>retardant eps wavy panels psm density including disscount</t>
         </is>
       </c>
       <c r="C701" t="inlineStr"/>
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>fire retardant eps wavy panels psm density including disscount</t>
+          <t>retardant eps wavy panels psm density including disscount</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>fire retardant eps wavy panels psm density including diss</t>
+          <t>retardant eps wavy panels psm density including diss</t>
         </is>
       </c>
     </row>
@@ -18977,19 +18977,19 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>src with ice</t>
+          <t>src ice</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr"/>
       <c r="E773" t="inlineStr">
         <is>
-          <t>src with ice</t>
+          <t>src ice</t>
         </is>
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>src with ice</t>
+          <t>src ice</t>
         </is>
       </c>
     </row>
@@ -19025,19 +19025,19 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>precast pre stressed beams hcs cast grey concre as struck from mould finish</t>
+          <t>precast pre stressed beams hcs cast grey concre struck mould finish</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr"/>
       <c r="E775" t="inlineStr">
         <is>
-          <t>precast pre stressed beams hcs cast grey concre as struck from mould finish</t>
+          <t>precast pre stressed beams hcs cast grey concre struck mould finish</t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>precast pre stressed beams hcs cast grey conc as struck from mould finish</t>
+          <t>precast pre stressed beams hcs cast grey conc struck mould finish</t>
         </is>
       </c>
     </row>
@@ -19145,19 +19145,19 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>polysport stucco elastic polyurethane two component pore filler</t>
+          <t>polysport stucco elastic polyurethane component pore filler</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr"/>
       <c r="E780" t="inlineStr">
         <is>
-          <t>polysport stucco elastic polyurethane two component pore filler</t>
+          <t>polysport stucco elastic polyurethane component pore filler</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>polysport stucco elastic polyurethane two component pore filler</t>
+          <t>polysport stucco elastic polyurethane component pore filler</t>
         </is>
       </c>
     </row>
@@ -19169,19 +19169,19 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>polysport mat two component polyurethane sealer</t>
+          <t>polysport mat component polyurethane sealer</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr"/>
       <c r="E781" t="inlineStr">
         <is>
-          <t>polysport mat two component polyurethane sealer</t>
+          <t>polysport mat component polyurethane sealer</t>
         </is>
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>polysport mat two component polyurethane sealer</t>
+          <t>polysport mat component polyurethane sealer</t>
         </is>
       </c>
     </row>
@@ -19193,19 +19193,19 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>polysport pu two component polyurethane self leveling coat for indoor spor</t>
+          <t>polysport pu component polyurethane self leveling coat indoor spor</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr"/>
       <c r="E782" t="inlineStr">
         <is>
-          <t>polysport pu two component polyurethane self leveling coat for indoor spor</t>
+          <t>polysport pu component polyurethane self leveling coat indoor spor</t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>polysport pu two component polyurethane self leveling coat for indoor spor</t>
+          <t>polysport pu component polyurethane self leveling coat indoor spor</t>
         </is>
       </c>
     </row>
@@ -19241,19 +19241,19 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>safepol elastic shock absorbent wet pour system</t>
+          <t>safepol elastic shock absorbent wet pour</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr"/>
       <c r="E784" t="inlineStr">
         <is>
-          <t>safepol elastic shock absorbent wet pour system</t>
+          <t>safepol elastic shock absorbent wet pour</t>
         </is>
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>safe elastic shock absorbent wet pour system</t>
+          <t>safe elastic shock absorbent wet pour</t>
         </is>
       </c>
     </row>
@@ -19361,19 +19361,19 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>opc with ice</t>
+          <t>opc ice</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
       <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr">
         <is>
-          <t>opc with ice</t>
+          <t>opc ice</t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>opc with ice</t>
+          <t>opc ice</t>
         </is>
       </c>
     </row>
@@ -19385,19 +19385,19 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>src with ice</t>
+          <t>src ice</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
       <c r="D790" t="inlineStr"/>
       <c r="E790" t="inlineStr">
         <is>
-          <t>src with ice</t>
+          <t>src ice</t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>src with ice</t>
+          <t>src ice</t>
         </is>
       </c>
     </row>
@@ -19721,19 +19721,19 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>cement weld on tm</t>
+          <t>cement weld tm</t>
         </is>
       </c>
       <c r="C804" t="inlineStr"/>
       <c r="D804" t="inlineStr"/>
       <c r="E804" t="inlineStr">
         <is>
-          <t>cement weld on tm</t>
+          <t>cement weld tm</t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>cement weld on tm</t>
+          <t>cement weld tm</t>
         </is>
       </c>
     </row>
@@ -20249,19 +20249,19 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>loor gully two side rubber aplacotm</t>
+          <t>loor gully rubber aplacotm</t>
         </is>
       </c>
       <c r="C826" t="inlineStr"/>
       <c r="D826" t="inlineStr"/>
       <c r="E826" t="inlineStr">
         <is>
-          <t>loor gully two side rubber aplacotm</t>
+          <t>loor gully rubber aplacotm</t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>loor gully two side rubber aplac</t>
+          <t>loor gully rubber aplac</t>
         </is>
       </c>
     </row>
@@ -20873,19 +20873,19 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>cable trunking overfloor single compartment with cover hx thk</t>
+          <t>cable trunking overfloor single compartment cover hx thk</t>
         </is>
       </c>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>cable trunking overfloor single compartment with cover hx thk</t>
+          <t>cable trunking overfloor single compartment cover hx thk</t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>cable trunking over single compartment with cover hx thk</t>
+          <t>cable trunking over single compartment cover hx thk</t>
         </is>
       </c>
     </row>
@@ -20969,19 +20969,19 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>cable trunking unequal bend single compartment with cover on top mmw</t>
+          <t>cable trunking unequal bend single compartment cover mmw</t>
         </is>
       </c>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>cable trunking unequal bend single compartment with cover on top mmw</t>
+          <t>cable trunking unequal bend single compartment cover mmw</t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>cable trunking unequal bend single compartment with cover on top mmw</t>
+          <t>cable trunking unequal bend single compartment cover mmw</t>
         </is>
       </c>
     </row>
@@ -20993,19 +20993,19 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>cable trunking bend single compartment with cover on top th</t>
+          <t>cable trunking bend single compartment cover th</t>
         </is>
       </c>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr">
         <is>
-          <t>cable trunking bend single compartment with cover on top th</t>
+          <t>cable trunking bend single compartment cover th</t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>cable trunking bend single compartment with cover on top th</t>
+          <t>cable trunking bend single compartment cover th</t>
         </is>
       </c>
     </row>
@@ -21017,19 +21017,19 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="C858" t="inlineStr"/>
       <c r="D858" t="inlineStr"/>
       <c r="E858" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21137,19 +21137,19 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>cable tray standard angle connector for ral coating</t>
+          <t>cable tray standard angle connector ral coating</t>
         </is>
       </c>
       <c r="C863" t="inlineStr"/>
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr">
         <is>
-          <t>cable tray standard angle connector for ral coating</t>
+          <t>cable tray standard angle connector ral coating</t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>cable tray standard angle connector for ral coating</t>
+          <t>cable tray standard angle connector ral coating</t>
         </is>
       </c>
     </row>
@@ -21161,19 +21161,19 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>cable trunking bend single compartment with cover on top thk</t>
+          <t>cable trunking bend single compartment cover thk</t>
         </is>
       </c>
       <c r="C864" t="inlineStr"/>
       <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr">
         <is>
-          <t>cable trunking bend single compartment with cover on top thk</t>
+          <t>cable trunking bend single compartment cover thk</t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>cable trunking bend single compartment with cover on top thk</t>
+          <t>cable trunking bend single compartment cover thk</t>
         </is>
       </c>
     </row>
@@ -21185,19 +21185,19 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="C865" t="inlineStr"/>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21209,19 +21209,19 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="C866" t="inlineStr"/>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21353,19 +21353,19 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>cable trunking reducer single compartment with cover on top to</t>
+          <t>cable trunking reducer single compartment cover</t>
         </is>
       </c>
       <c r="C872" t="inlineStr"/>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr">
         <is>
-          <t>cable trunking reducer single compartment with cover on top to</t>
+          <t>cable trunking reducer single compartment cover</t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>cable trunking reducer single compartment with cover on top to</t>
+          <t>cable trunking reducer single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21377,19 +21377,19 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="C873" t="inlineStr"/>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21401,19 +21401,19 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>cable trunking tee plece single compartment with cover on top</t>
+          <t>cable trunking tee plece single compartment cover</t>
         </is>
       </c>
       <c r="C874" t="inlineStr"/>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>cable trunking tee plece single compartment with cover on top</t>
+          <t>cable trunking tee plece single compartment cover</t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>cable trunking tee plece single compartment with cover on top</t>
+          <t>cable trunking tee plece single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21425,19 +21425,19 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>cable trunking overfloor single compartment with cover hx thk</t>
+          <t>cable trunking overfloor single compartment cover hx thk</t>
         </is>
       </c>
       <c r="C875" t="inlineStr"/>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>cable trunking overfloor single compartment with cover hx thk</t>
+          <t>cable trunking overfloor single compartment cover hx thk</t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>cable trunking over single compartment with cover hx thk</t>
+          <t>cable trunking over single compartment cover hx thk</t>
         </is>
       </c>
     </row>
@@ -21545,19 +21545,19 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>cable trunking unequal bend single compartment with cover on top</t>
+          <t>cable trunking unequal bend single compartment cover</t>
         </is>
       </c>
       <c r="C880" t="inlineStr"/>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>cable trunking unequal bend single compartment with cover on top</t>
+          <t>cable trunking unequal bend single compartment cover</t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>cable trunking unequal bend single compartment with cover on top</t>
+          <t>cable trunking unequal bend single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21569,19 +21569,19 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="C881" t="inlineStr"/>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>cable trunking unequal tee plece single compartment with cover on top</t>
+          <t>cable trunking unequal tee plece single compartment cover</t>
         </is>
       </c>
     </row>
@@ -21593,19 +21593,19 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>supply of split ac material</t>
+          <t>supply split ac material</t>
         </is>
       </c>
       <c r="C882" t="inlineStr"/>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>supply of split ac material</t>
+          <t>supply split ac material</t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>supply of split ac material</t>
+          <t>supply split ac material</t>
         </is>
       </c>
     </row>
@@ -21624,12 +21624,12 @@
       <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -21648,12 +21648,12 @@
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -21672,12 +21672,12 @@
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -21689,19 +21689,19 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>supply and sandwich panel</t>
+          <t>supply sandwich panel</t>
         </is>
       </c>
       <c r="C886" t="inlineStr"/>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>supply and sandwich panel</t>
+          <t>supply sandwich panel</t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>supply and sandwich panel</t>
+          <t>supply sandwich panel</t>
         </is>
       </c>
     </row>
@@ -21761,19 +21761,19 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>supply cement for block work</t>
+          <t>supply cement block work</t>
         </is>
       </c>
       <c r="C889" t="inlineStr"/>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>supply cement for block work</t>
+          <t>supply cement block work</t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>supply cement for block work</t>
+          <t>supply cement block work</t>
         </is>
       </c>
     </row>
@@ -21840,12 +21840,12 @@
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -21888,12 +21888,12 @@
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -21984,12 +21984,12 @@
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -22488,12 +22488,12 @@
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>sheet black sabic</t>
+          <t>sheet black سابك</t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>sheet black sabic</t>
+          <t>sheet black سابك</t>
         </is>
       </c>
     </row>
@@ -22512,12 +22512,12 @@
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>sheet black sabic</t>
+          <t>sheet black سابك</t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>sheet black sabic</t>
+          <t>sheet black سابك</t>
         </is>
       </c>
     </row>
@@ -22536,12 +22536,12 @@
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>sheet black sabic</t>
+          <t>sheet black سابك</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>sheet black sabic</t>
+          <t>sheet black سابك</t>
         </is>
       </c>
     </row>
@@ -22553,19 +22553,19 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
     </row>
@@ -22577,19 +22577,19 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="C923" t="inlineStr"/>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -22601,19 +22601,19 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -22625,19 +22625,19 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>equal tee hdg osf tray thick</t>
+          <t>equal tee hdg osf tray</t>
         </is>
       </c>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>equal tee hdg osf tray thick</t>
+          <t>equal tee hdg osf tray</t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>equal tee hdg osf tray thick</t>
+          <t>equal tee hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -22649,19 +22649,19 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>equal tee hdg osf tray thick</t>
+          <t>equal tee hdg osf tray</t>
         </is>
       </c>
       <c r="C926" t="inlineStr"/>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>equal tee hdg osf tray thick</t>
+          <t>equal tee hdg osf tray</t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>equal tee hdg osf tray thick</t>
+          <t>equal tee hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -22673,19 +22673,19 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
     </row>
@@ -22697,19 +22697,19 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
     </row>
@@ -22721,19 +22721,19 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>roofing bolt with nut washer</t>
+          <t>roofing bolt nut washer</t>
         </is>
       </c>
       <c r="C929" t="inlineStr"/>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>roofing bolt with nut washer</t>
+          <t>roofing bolt nut washer</t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>roofing bolt with nut washer</t>
+          <t>roofing bolt nut washer</t>
         </is>
       </c>
     </row>
@@ -22769,19 +22769,19 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="C931" t="inlineStr"/>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
     </row>
@@ -22793,19 +22793,19 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="C932" t="inlineStr"/>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
     </row>
@@ -22817,19 +22817,19 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="C933" t="inlineStr"/>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -22841,19 +22841,19 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>reducer hdg osf tray thick</t>
+          <t>reducer hdg osf tray</t>
         </is>
       </c>
       <c r="C934" t="inlineStr"/>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>reducer hdg osf tray thick</t>
+          <t>reducer hdg osf tray</t>
         </is>
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>reducer hdg osf tray thick</t>
+          <t>reducer hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -22865,19 +22865,19 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
       <c r="C935" t="inlineStr"/>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -22889,19 +22889,19 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
     </row>
@@ -22961,19 +22961,19 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="C939" t="inlineStr"/>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
     </row>
@@ -22985,19 +22985,19 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="C940" t="inlineStr"/>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>riser deg hdg osf tray thick</t>
+          <t>riser deg hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23009,19 +23009,19 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>riser deg cover hdg osf tray thick</t>
+          <t>riser deg cover hdg osf tray</t>
         </is>
       </c>
       <c r="C941" t="inlineStr"/>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>riser deg cover hdg osf tray thick</t>
+          <t>riser deg cover hdg osf tray</t>
         </is>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>riser deg cover hdg osf tray thick</t>
+          <t>riser deg cover hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23033,19 +23033,19 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>equal tee cover hdg osf tray thick</t>
+          <t>equal tee cover hdg osf tray</t>
         </is>
       </c>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>equal tee cover hdg osf tray thick</t>
+          <t>equal tee cover hdg osf tray</t>
         </is>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>equal tee cover hdg osf tray thick</t>
+          <t>equal tee cover hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23057,19 +23057,19 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>equal tee cover hdg osf tray thick</t>
+          <t>equal tee cover hdg osf tray</t>
         </is>
       </c>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>equal tee cover hdg osf tray thick</t>
+          <t>equal tee cover hdg osf tray</t>
         </is>
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>equal tee cover hdg osf tray thick</t>
+          <t>equal tee cover hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23081,19 +23081,19 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="C944" t="inlineStr"/>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
     </row>
@@ -23129,19 +23129,19 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>hdg slotted channel thick length</t>
+          <t>hdg slotted channel length</t>
         </is>
       </c>
       <c r="C946" t="inlineStr"/>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>hdg slotted channel thick length</t>
+          <t>hdg slotted channel length</t>
         </is>
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>hdg slotted channel thick length</t>
+          <t>hdg slotted channel length</t>
         </is>
       </c>
     </row>
@@ -23153,19 +23153,19 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
       <c r="C947" t="inlineStr"/>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23177,19 +23177,19 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="C948" t="inlineStr"/>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>hdg osf tray cover thick length</t>
+          <t>hdg osf tray cover length</t>
         </is>
       </c>
     </row>
@@ -23201,19 +23201,19 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>riser deg cover hdg osf tray thick</t>
+          <t>riser deg cover hdg osf tray</t>
         </is>
       </c>
       <c r="C949" t="inlineStr"/>
       <c r="D949" t="inlineStr"/>
       <c r="E949" t="inlineStr">
         <is>
-          <t>riser deg cover hdg osf tray thick</t>
+          <t>riser deg cover hdg osf tray</t>
         </is>
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>riser deg cover hdg osf tray thick</t>
+          <t>riser deg cover hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23225,19 +23225,19 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>reducer cover hdg osf tray thick</t>
+          <t>reducer cover hdg osf tray</t>
         </is>
       </c>
       <c r="C950" t="inlineStr"/>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>reducer cover hdg osf tray thick</t>
+          <t>reducer cover hdg osf tray</t>
         </is>
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>reducer cover hdg osf tray thick</t>
+          <t>reducer cover hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23249,19 +23249,19 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
       <c r="C951" t="inlineStr"/>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>bend deg hdg osf tray thick</t>
+          <t>bend deg hdg osf tray</t>
         </is>
       </c>
     </row>
@@ -23273,19 +23273,19 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="C952" t="inlineStr"/>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>hdg osf tray thick length</t>
+          <t>hdg osf tray length</t>
         </is>
       </c>
     </row>
@@ -23537,19 +23537,19 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>bc bsg pvc cement can canada</t>
+          <t>bc bsg pvc cement canada</t>
         </is>
       </c>
       <c r="C963" t="inlineStr"/>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>bc bsg pvc cement can canada</t>
+          <t>bc bsg pvc cement canada</t>
         </is>
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>bc bsg pvc cement can canada</t>
+          <t>bc bsg pvc cement canada</t>
         </is>
       </c>
     </row>
@@ -23657,19 +23657,19 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>bc bsb strap saddle pvc with base</t>
+          <t>bc bsb strap saddle pvc base</t>
         </is>
       </c>
       <c r="C968" t="inlineStr"/>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>bc bsb strap saddle pvc with base</t>
+          <t>bc bsb strap saddle pvc base</t>
         </is>
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>bc bsb strap saddle pvc with base</t>
+          <t>bc bsb strap saddle pvc base</t>
         </is>
       </c>
     </row>
@@ -23777,19 +23777,19 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>bc bsb strap saddle pvc with base</t>
+          <t>bc bsb strap saddle pvc base</t>
         </is>
       </c>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>bc bsb strap saddle pvc with base</t>
+          <t>bc bsb strap saddle pvc base</t>
         </is>
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>bc bsb strap saddle pvc with base</t>
+          <t>bc bsb strap saddle pvc base</t>
         </is>
       </c>
     </row>
@@ -23849,19 +23849,19 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>forged dc clip for copper tape</t>
+          <t>forged dc clip copper tape</t>
         </is>
       </c>
       <c r="C976" t="inlineStr"/>
       <c r="D976" t="inlineStr"/>
       <c r="E976" t="inlineStr">
         <is>
-          <t>forged dc clip for copper tape</t>
+          <t>forged dc clip copper tape</t>
         </is>
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>forged dc clip for copper tape</t>
+          <t>forged dc clip copper tape</t>
         </is>
       </c>
     </row>
@@ -23873,19 +23873,19 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>copper test clamp for cable</t>
+          <t>copper test clamp cable</t>
         </is>
       </c>
       <c r="C977" t="inlineStr"/>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>copper test clamp for cable</t>
+          <t>copper test clamp cable</t>
         </is>
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>copper test clamp for cable</t>
+          <t>copper test clamp cable</t>
         </is>
       </c>
     </row>
@@ -23897,19 +23897,19 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>rod to cable clamps guv type</t>
+          <t>rod cable clamps guv type</t>
         </is>
       </c>
       <c r="C978" t="inlineStr"/>
       <c r="D978" t="inlineStr"/>
       <c r="E978" t="inlineStr">
         <is>
-          <t>rod to cable clamps guv type</t>
+          <t>rod cable clamps guv type</t>
         </is>
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>rod to cable clamps guv type</t>
+          <t>rod cable clamps guv type</t>
         </is>
       </c>
     </row>
@@ -23921,19 +23921,19 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
     </row>
@@ -24017,19 +24017,19 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>horizontal cable run to tap tee joint</t>
+          <t>horizontal cable run tap tee joint</t>
         </is>
       </c>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>horizontal cable run to tap tee joint</t>
+          <t>horizontal cable run tap tee joint</t>
         </is>
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>horizontal cable run to tap tee joint</t>
+          <t>horizontal cable run tap tee joint</t>
         </is>
       </c>
     </row>
@@ -24041,19 +24041,19 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="C984" t="inlineStr"/>
       <c r="D984" t="inlineStr"/>
       <c r="E984" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
     </row>
@@ -24089,19 +24089,19 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>square tape clamp to</t>
+          <t>square tape clamp</t>
         </is>
       </c>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr">
         <is>
-          <t>square tape clamp to</t>
+          <t>square tape clamp</t>
         </is>
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>square tape clamp to</t>
+          <t>square tape clamp</t>
         </is>
       </c>
     </row>
@@ -24137,19 +24137,19 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>handle clamp small for type mould</t>
+          <t>handle clamp small type mould</t>
         </is>
       </c>
       <c r="C988" t="inlineStr"/>
       <c r="D988" t="inlineStr"/>
       <c r="E988" t="inlineStr">
         <is>
-          <t>handle clamp small for type mould</t>
+          <t>handle clamp small type mould</t>
         </is>
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>handle clamp small for type mould</t>
+          <t>handle clamp small type mould</t>
         </is>
       </c>
     </row>
@@ -24185,19 +24185,19 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>flat tinned copper braid bond ferruled ends with dia</t>
+          <t>flat tinned copper braid bond ferruled ends dia</t>
         </is>
       </c>
       <c r="C990" t="inlineStr"/>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>flat tinned copper braid bond ferruled ends with dia</t>
+          <t>flat tinned copper braid bond ferruled ends dia</t>
         </is>
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>flat tinned copper braid bond ferrule ends with dia</t>
+          <t>flat tinned copper braid bond ferrule ends dia</t>
         </is>
       </c>
     </row>
@@ -24209,19 +24209,19 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>hole earth bar for concrete pit</t>
+          <t>hole earth bar concrete pit</t>
         </is>
       </c>
       <c r="C991" t="inlineStr"/>
       <c r="D991" t="inlineStr"/>
       <c r="E991" t="inlineStr">
         <is>
-          <t>hole earth bar for concrete pit</t>
+          <t>hole earth bar concrete pit</t>
         </is>
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>hole earth bar for concrete pit</t>
+          <t>hole earth bar concrete pit</t>
         </is>
       </c>
     </row>
@@ -24233,19 +24233,19 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>weld metal supplied cartons of</t>
+          <t>weld metal supplied cartons</t>
         </is>
       </c>
       <c r="C992" t="inlineStr"/>
       <c r="D992" t="inlineStr"/>
       <c r="E992" t="inlineStr">
         <is>
-          <t>weld metal supplied cartons of</t>
+          <t>weld metal supplied cartons</t>
         </is>
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>weld metal supplied cartons of</t>
+          <t>weld metal supplied cartons</t>
         </is>
       </c>
     </row>
@@ -24401,19 +24401,19 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>horizontal cable run to tap tee joint</t>
+          <t>horizontal cable run tap tee joint</t>
         </is>
       </c>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr"/>
       <c r="E999" t="inlineStr">
         <is>
-          <t>horizontal cable run to tap tee joint</t>
+          <t>horizontal cable run tap tee joint</t>
         </is>
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>horizontal cable run to tap tee joint</t>
+          <t>horizontal cable run tap tee joint</t>
         </is>
       </c>
     </row>
@@ -24425,19 +24425,19 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr"/>
       <c r="D1000" t="inlineStr"/>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="F1000" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
     </row>
@@ -24473,19 +24473,19 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>flat tinned copper braid bond ferruled ends with dia</t>
+          <t>flat tinned copper braid bond ferruled ends dia</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr"/>
       <c r="D1002" t="inlineStr"/>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>flat tinned copper braid bond ferruled ends with dia</t>
+          <t>flat tinned copper braid bond ferruled ends dia</t>
         </is>
       </c>
       <c r="F1002" t="inlineStr">
         <is>
-          <t>flat tinned copper braid bond ferrule ends with dia</t>
+          <t>flat tinned copper braid bond ferrule ends dia</t>
         </is>
       </c>
     </row>
@@ -24497,19 +24497,19 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>hole earth bar for concrete pit</t>
+          <t>hole earth bar concrete pit</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr"/>
       <c r="D1003" t="inlineStr"/>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>hole earth bar for concrete pit</t>
+          <t>hole earth bar concrete pit</t>
         </is>
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>hole earth bar for concrete pit</t>
+          <t>hole earth bar concrete pit</t>
         </is>
       </c>
     </row>
@@ -24521,19 +24521,19 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>weld metal supplied cartons of</t>
+          <t>weld metal supplied cartons</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr"/>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>weld metal supplied cartons of</t>
+          <t>weld metal supplied cartons</t>
         </is>
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>weld metal supplied cartons of</t>
+          <t>weld metal supplied cartons</t>
         </is>
       </c>
     </row>
@@ -24545,19 +24545,19 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr"/>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
     </row>
@@ -24593,19 +24593,19 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>forged dc clip for copper tape</t>
+          <t>forged dc clip copper tape</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr"/>
       <c r="D1007" t="inlineStr"/>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>forged dc clip for copper tape</t>
+          <t>forged dc clip copper tape</t>
         </is>
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>forged dc clip for copper tape</t>
+          <t>forged dc clip copper tape</t>
         </is>
       </c>
     </row>
@@ -24617,19 +24617,19 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>copper test clamp for cable</t>
+          <t>copper test clamp cable</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
       <c r="D1008" t="inlineStr"/>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>copper test clamp for cable</t>
+          <t>copper test clamp cable</t>
         </is>
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>copper test clamp for cable</t>
+          <t>copper test clamp cable</t>
         </is>
       </c>
     </row>
@@ -24641,19 +24641,19 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>rod to cable clamps guv type</t>
+          <t>rod cable clamps guv type</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr"/>
       <c r="D1009" t="inlineStr"/>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>rod to cable clamps guv type</t>
+          <t>rod cable clamps guv type</t>
         </is>
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>rod to cable clamps guv type</t>
+          <t>rod cable clamps guv type</t>
         </is>
       </c>
     </row>
@@ -24665,19 +24665,19 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
       <c r="D1010" t="inlineStr"/>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>way earth bar with twin disconnecting link</t>
+          <t>way earth bar twin disconnecting link</t>
         </is>
       </c>
     </row>
@@ -24713,19 +24713,19 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>square tape clamp to</t>
+          <t>square tape clamp</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr"/>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>square tape clamp to</t>
+          <t>square tape clamp</t>
         </is>
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>square tape clamp to</t>
+          <t>square tape clamp</t>
         </is>
       </c>
     </row>
@@ -24761,19 +24761,19 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>handle clamp small for type mould</t>
+          <t>handle clamp small type mould</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr"/>
       <c r="D1014" t="inlineStr"/>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>handle clamp small for type mould</t>
+          <t>handle clamp small type mould</t>
         </is>
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>handle clamp small for type mould</t>
+          <t>handle clamp small type mould</t>
         </is>
       </c>
     </row>
@@ -24929,19 +24929,19 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>dome small roof drain with mesh gasket fd gx</t>
+          <t>dome small roof drain mesh gasket fd gx</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr"/>
       <c r="D1021" t="inlineStr"/>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>dome small roof drain with mesh gasket fd gx</t>
+          <t>dome small roof drain mesh gasket fd gx</t>
         </is>
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>dome small roof drain with mesh gasket fd gx</t>
+          <t>dome small roof drain mesh gasket fd gx</t>
         </is>
       </c>
     </row>
@@ -25121,19 +25121,19 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>supply cement for block work</t>
+          <t>supply cement block work</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr"/>
       <c r="D1029" t="inlineStr"/>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>supply cement for block work</t>
+          <t>supply cement block work</t>
         </is>
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>supply cement for block work</t>
+          <t>supply cement block work</t>
         </is>
       </c>
     </row>
@@ -25145,19 +25145,19 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>supply and sandwich panel</t>
+          <t>supply sandwich panel</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr"/>
       <c r="D1030" t="inlineStr"/>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>supply and sandwich panel</t>
+          <t>supply sandwich panel</t>
         </is>
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>supply and sandwich panel</t>
+          <t>supply sandwich panel</t>
         </is>
       </c>
     </row>
@@ -27360,12 +27360,12 @@
       <c r="D1122" t="inlineStr"/>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1122" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -27432,12 +27432,12 @@
       <c r="D1125" t="inlineStr"/>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -27480,12 +27480,12 @@
       <c r="D1127" t="inlineStr"/>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -28217,19 +28217,19 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>exit button no touch magnetic lock</t>
+          <t>exit button touch magnetic lock</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr"/>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>exit button no touch magnetic lock</t>
+          <t>exit button touch magnetic lock</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>exit button no touch magnetic lock</t>
+          <t>exit button touch magnetic lock</t>
         </is>
       </c>
     </row>
@@ -28457,19 +28457,19 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>installation ed and rd fix termination</t>
+          <t>installation ed rd fix termination</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr"/>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>installation ed and rd fix termination</t>
+          <t>installation ed rd fix termination</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>installation ed and rd fix termination</t>
+          <t>installation ed rd fix termination</t>
         </is>
       </c>
     </row>
@@ -28553,19 +28553,19 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>installation testing and commissioning</t>
+          <t>installation testing commissioning</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr"/>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>installation testing and commissioning</t>
+          <t>installation testing commissioning</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>installation testing and commissioning</t>
+          <t>installation testing commissioning</t>
         </is>
       </c>
     </row>
@@ -28817,19 +28817,19 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>trina solar panels mono perc de model watt</t>
+          <t>trina solar panels mono perc model watt</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr"/>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>trina solar panels mono perc de model watt</t>
+          <t>trina solar panels mono perc model watt</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr">
         <is>
-          <t>trina solar panels mono perc de model watt</t>
+          <t>trina solar panels mono perc model watt</t>
         </is>
       </c>
     </row>
@@ -28913,19 +28913,19 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>resol deltasol sll full kit solar controller</t>
+          <t>resol deltasol sll kit solar controller</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>resol deltasol sll full kit solar controller</t>
+          <t>resol deltasol sll kit solar controller</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>resol deltas sll full kit solar controller</t>
+          <t>resol deltas sll kit solar controller</t>
         </is>
       </c>
     </row>
@@ -28985,19 +28985,19 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>resol deltasol sll full kit solar controller</t>
+          <t>resol deltasol sll kit solar controller</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>resol deltasol sll full kit solar controller</t>
+          <t>resol deltasol sll kit solar controller</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>resol deltas sll full kit solar controller</t>
+          <t>resol deltas sll kit solar controller</t>
         </is>
       </c>
     </row>
@@ -29184,12 +29184,12 @@
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -29232,12 +29232,12 @@
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1200" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -29304,12 +29304,12 @@
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -29345,19 +29345,19 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>opc with ice</t>
+          <t>opc ice</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr"/>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>opc with ice</t>
+          <t>opc ice</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>opc with ice</t>
+          <t>opc ice</t>
         </is>
       </c>
     </row>
@@ -29832,12 +29832,12 @@
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -29880,12 +29880,12 @@
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1227" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -30521,19 +30521,19 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>cast situ post tension slab with the shwon thickness stength mpa cylinder including needed ci</t>
+          <t>cast situ post tension slab shwon thickness stength mpa cylinder including needed ci</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr"/>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>cast situ post tension slab with the shwon thickness stength mpa cylinder including needed ci</t>
+          <t>cast situ post tension slab shwon thickness stength mpa cylinder including needed ci</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>cast situ post tension slab with the shwo thickness stength mpa cylinder including needed ci</t>
+          <t>cast situ post tension slab shwo thickness stength mpa cylinder including needed ci</t>
         </is>
       </c>
     </row>
@@ -30696,12 +30696,12 @@
       <c r="D1261" t="inlineStr"/>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -31769,19 +31769,19 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr"/>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="F1306" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
     </row>
@@ -32129,19 +32129,19 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>recessed led panel with frame</t>
+          <t>recessed led panel frame</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr"/>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>recessed led panel with frame</t>
+          <t>recessed led panel frame</t>
         </is>
       </c>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>recessed led panel with frame</t>
+          <t>recessed led panel frame</t>
         </is>
       </c>
     </row>
@@ -32153,19 +32153,19 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>recessed led panel with frame</t>
+          <t>recessed led panel frame</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr"/>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>recessed led panel with frame</t>
+          <t>recessed led panel frame</t>
         </is>
       </c>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>recessed led panel with frame</t>
+          <t>recessed led panel frame</t>
         </is>
       </c>
     </row>
@@ -32297,19 +32297,19 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>up down wall light ip</t>
+          <t>wall light ip</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr"/>
       <c r="D1328" t="inlineStr"/>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>up down wall light ip</t>
+          <t>wall light ip</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>up down wall light ip</t>
+          <t>wall light ip</t>
         </is>
       </c>
     </row>
@@ -33737,19 +33737,19 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>fabrication of vertical jacketed mixing tank capacity</t>
+          <t>fabrication vertical jacketed mixing tank capacity</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>fabrication of vertical jacketed mixing tank capacity</t>
+          <t>fabrication vertical jacketed mixing tank capacity</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>fabrication of vertical jacketed mixing tank capacity</t>
+          <t>fabrication vertical jacketed mixing tank capacity</t>
         </is>
       </c>
     </row>
@@ -37697,19 +37697,19 @@
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>paging micrephone with zone selector</t>
+          <t>paging micrephone zone selector</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>paging micrephone with zone selector</t>
+          <t>paging micrephone zone selector</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr">
         <is>
-          <t>paging micr with zone selector</t>
+          <t>paging micr zone selector</t>
         </is>
       </c>
     </row>
@@ -37721,19 +37721,19 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>installition and conect with fire alarm panel</t>
+          <t>installition conect alarm panel</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr"/>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>installition and conect with fire alarm panel</t>
+          <t>installition conect alarm panel</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr">
         <is>
-          <t>install and conect with fire alarm panel</t>
+          <t>install conect alarm panel</t>
         </is>
       </c>
     </row>
@@ -37745,19 +37745,19 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>all mixer amplifer zone</t>
+          <t>mixer amplifer zone</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr"/>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>all mixer amplifer zone</t>
+          <t>mixer amplifer zone</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr">
         <is>
-          <t>all mixer amplifer zone</t>
+          <t>mixer amplifer zone</t>
         </is>
       </c>
     </row>
@@ -37769,19 +37769,19 @@
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>rack cabint with fan and pdu</t>
+          <t>rack cabint fan pdu</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>rack cabint with fan and pdu</t>
+          <t>rack cabint fan pdu</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr">
         <is>
-          <t>rack cabin with fan and pdu</t>
+          <t>rack cabin fan pdu</t>
         </is>
       </c>
     </row>
@@ -39417,19 +39417,19 @@
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>thrust ball bearing configuration size color none style</t>
+          <t>thrust ball bearing configuration size color style</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr"/>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>thrust ball bearing configuration size color none style</t>
+          <t>thrust ball bearing configuration size color style</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>thrust ball bearing configuration size color none style</t>
+          <t>thrust ball bearing configuration size color style</t>
         </is>
       </c>
     </row>
@@ -39441,19 +39441,19 @@
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>brake drum configuration rear size none color mfmx style fuso rel</t>
+          <t>brake drum configuration rear size color mfmx style fuso rel</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>brake drum configuration rear size none color mfmx style fuso rel</t>
+          <t>brake drum configuration rear size color mfmx style fuso rel</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>brake drum configuration rear size none color mfm style fuso rel</t>
+          <t>brake drum configuration rear size color mfm style fuso rel</t>
         </is>
       </c>
     </row>
@@ -39489,19 +39489,19 @@
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>crankshaft seal configuration size none color mfmx style mitsubishi</t>
+          <t>crankshaft seal configuration size color mfmx style mitsubishi</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr"/>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>crankshaft seal configuration size none color mfmx style mitsubishi</t>
+          <t>crankshaft seal configuration size color mfmx style mitsubishi</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>crankshaft seal configuration size none color mfm style mitsubishi</t>
+          <t>crankshaft seal configuration size color mfm style mitsubishi</t>
         </is>
       </c>
     </row>
@@ -39513,19 +39513,19 @@
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>spider cross bearing configuration un iversal crossbearing size none color mx style fuso</t>
+          <t>spider cross bearing configuration iversal crossbearing size color mx style fuso</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr"/>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>spider cross bearing configuration un iversal crossbearing size none color mx style fuso</t>
+          <t>spider cross bearing configuration iversal crossbearing size color mx style fuso</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>spider cross bearing configuration un ivers cross size none color mx style fuso</t>
+          <t>spider cross bearing configuration ivers cross size color mx style fuso</t>
         </is>
       </c>
     </row>
@@ -39585,19 +39585,19 @@
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>ring seal configuration nutring size none color mx style fuso</t>
+          <t>ring seal configuration nutring size color mx style fuso</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr"/>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>ring seal configuration nutring size none color mx style fuso</t>
+          <t>ring seal configuration nutring size color mx style fuso</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
         <is>
-          <t>ring seal configuration nutri size none color mx style fuso</t>
+          <t>ring seal configuration nutri size color mx style fuso</t>
         </is>
       </c>
     </row>
@@ -39609,19 +39609,19 @@
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>lock plate configuration istanz spacer deadwheel size none color mx style fuso rel</t>
+          <t>lock plate configuration istanz spacer deadwheel size color mx style fuso rel</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr"/>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>lock plate configuration istanz spacer deadwheel size none color mx style fuso rel</t>
+          <t>lock plate configuration istanz spacer deadwheel size color mx style fuso rel</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>lock plate configuration istan spacer dead size none color mx style fuso rel</t>
+          <t>lock plate configuration istan spacer dead size color mx style fuso rel</t>
         </is>
       </c>
     </row>
@@ -40665,19 +40665,19 @@
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>msmn driver screw for manual motor staters</t>
+          <t>msmn driver screw manual motor staters</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr"/>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>msmn driver screw for manual motor staters</t>
+          <t>msmn driver screw manual motor staters</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>msm driver screw for manual motor staters</t>
+          <t>msm driver screw manual motor staters</t>
         </is>
       </c>
     </row>
@@ -43337,19 +43337,19 @@
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>thrust ball bearing configuration size color none style</t>
+          <t>thrust ball bearing configuration size color style</t>
         </is>
       </c>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr"/>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>thrust ball bearing configuration size color none style</t>
+          <t>thrust ball bearing configuration size color style</t>
         </is>
       </c>
       <c r="F1778" t="inlineStr">
         <is>
-          <t>thrust ball bearing configuration size color none style</t>
+          <t>thrust ball bearing configuration size color style</t>
         </is>
       </c>
     </row>
@@ -43361,19 +43361,19 @@
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>brake drum configuration rear size none color mfmx style fuso rel</t>
+          <t>brake drum configuration rear size color mfmx style fuso rel</t>
         </is>
       </c>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr"/>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>brake drum configuration rear size none color mfmx style fuso rel</t>
+          <t>brake drum configuration rear size color mfmx style fuso rel</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
         <is>
-          <t>brake drum configuration rear size none color mfm style fuso rel</t>
+          <t>brake drum configuration rear size color mfm style fuso rel</t>
         </is>
       </c>
     </row>
@@ -43385,19 +43385,19 @@
       </c>
       <c r="B1780" t="inlineStr">
         <is>
-          <t>alternator assembly mxg configuration assy size none color mx style fuso</t>
+          <t>alternator assembly mxg configuration assy size color mx style fuso</t>
         </is>
       </c>
       <c r="C1780" t="inlineStr"/>
       <c r="D1780" t="inlineStr"/>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>alternator assembly mxg configuration assy size none color mx style fuso</t>
+          <t>alternator assembly mxg configuration assy size color mx style fuso</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>alternator assembly mxg configuration assy size none color mx style fuso</t>
+          <t>alternator assembly mxg configuration assy size color mx style fuso</t>
         </is>
       </c>
     </row>
@@ -43409,19 +43409,19 @@
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>control sw itch configuration electromagnetic coupling housing size none color</t>
+          <t>control sw itch configuration electromagnetic coupling housing size color</t>
         </is>
       </c>
       <c r="C1781" t="inlineStr"/>
       <c r="D1781" t="inlineStr"/>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>control sw itch configuration electromagnetic coupling housing size none color</t>
+          <t>control sw itch configuration electromagnetic coupling housing size color</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>control sw itch configuration electromagnetic coupling housing size none color</t>
+          <t>control sw itch configuration electromagnetic coupling housing size color</t>
         </is>
       </c>
     </row>
@@ -43433,19 +43433,19 @@
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>brake chamber mx configuration assy lh size none color style mitsubi</t>
+          <t>brake chamber mx configuration assy lh size color style mitsubi</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr"/>
       <c r="D1782" t="inlineStr"/>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>brake chamber mx configuration assy lh size none color style mitsubi</t>
+          <t>brake chamber mx configuration assy lh size color style mitsubi</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>brake chamber mx configuration assy lh size none color style mitsubi</t>
+          <t>brake chamber mx configuration assy lh size color style mitsubi</t>
         </is>
       </c>
     </row>
@@ -43457,19 +43457,19 @@
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>wheel bolt mx configuration hub size none color stvle mitsubishi</t>
+          <t>wheel bolt mx configuration hub size color stvle mitsubishi</t>
         </is>
       </c>
       <c r="C1783" t="inlineStr"/>
       <c r="D1783" t="inlineStr"/>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>wheel bolt mx configuration hub size none color stvle mitsubishi</t>
+          <t>wheel bolt mx configuration hub size color stvle mitsubishi</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>wheel bolt mx configuration hub size none color stv mitsubishi</t>
+          <t>wheel bolt mx configuration hub size color stv mitsubishi</t>
         </is>
       </c>
     </row>
@@ -43505,19 +43505,19 @@
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>crankshaft seal configuration size none color mfmx style mitsubishi</t>
+          <t>crankshaft seal configuration size color mfmx style mitsubishi</t>
         </is>
       </c>
       <c r="C1785" t="inlineStr"/>
       <c r="D1785" t="inlineStr"/>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>crankshaft seal configuration size none color mfmx style mitsubishi</t>
+          <t>crankshaft seal configuration size color mfmx style mitsubishi</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>crankshaft seal configuration size none color mfm style mitsubishi</t>
+          <t>crankshaft seal configuration size color mfm style mitsubishi</t>
         </is>
       </c>
     </row>
@@ -43529,19 +43529,19 @@
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>startin motor ivixg configuration starter size none color mx style mitsubishi</t>
+          <t>startin motor ivixg configuration starter size color mx style mitsubishi</t>
         </is>
       </c>
       <c r="C1786" t="inlineStr"/>
       <c r="D1786" t="inlineStr"/>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>startin motor ivixg configuration starter size none color mx style mitsubishi</t>
+          <t>startin motor ivixg configuration starter size color mx style mitsubishi</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>startin motor ivi configuration starter size none color mx style mitsubishi</t>
+          <t>startin motor ivi configuration starter size color mx style mitsubishi</t>
         </is>
       </c>
     </row>
@@ -43553,19 +43553,19 @@
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>brake pads shoes liners iux configuration rear liner size none color mx stvle</t>
+          <t>brake pads shoes liners iux configuration rear liner size color mx stvle</t>
         </is>
       </c>
       <c r="C1787" t="inlineStr"/>
       <c r="D1787" t="inlineStr"/>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>brake pads shoes liners iux configuration rear liner size none color mx stvle</t>
+          <t>brake pads shoes liners iux configuration rear liner size color mx stvle</t>
         </is>
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>brake pads shoes liners iux configuration rear liner size none color mx stv</t>
+          <t>brake pads shoes liners iux configuration rear liner size color mx stv</t>
         </is>
       </c>
     </row>
@@ -43577,19 +43577,19 @@
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>hub bearing mxgo configuration front size none color mx stvle mitsubishi</t>
+          <t>hub bearing mxgo configuration size color mx stvle mitsubishi</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr"/>
       <c r="D1788" t="inlineStr"/>
       <c r="E1788" t="inlineStr">
         <is>
-          <t>hub bearing mxgo configuration front size none color mx stvle mitsubishi</t>
+          <t>hub bearing mxgo configuration size color mx stvle mitsubishi</t>
         </is>
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>hub bearing mxg configuration front size none color mx stv mitsubishi</t>
+          <t>hub bearing mxg configuration size color mx stv mitsubishi</t>
         </is>
       </c>
     </row>
@@ -43601,19 +43601,19 @@
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>cross joint mfmxg configuration size none color mfmx siyle fuso</t>
+          <t>cross joint mfmxg configuration size color mfmx siyle fuso</t>
         </is>
       </c>
       <c r="C1789" t="inlineStr"/>
       <c r="D1789" t="inlineStr"/>
       <c r="E1789" t="inlineStr">
         <is>
-          <t>cross joint mfmxg configuration size none color mfmx siyle fuso</t>
+          <t>cross joint mfmxg configuration size color mfmx siyle fuso</t>
         </is>
       </c>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>cross joint mfm configuration size none color mfm siy fuso</t>
+          <t>cross joint mfm configuration size color mfm siy fuso</t>
         </is>
       </c>
     </row>
@@ -43625,19 +43625,19 @@
       </c>
       <c r="B1790" t="inlineStr">
         <is>
-          <t>spider cross bearing configuration un iversal crossbearing size none color mx style fuso</t>
+          <t>spider cross bearing configuration iversal crossbearing size color mx style fuso</t>
         </is>
       </c>
       <c r="C1790" t="inlineStr"/>
       <c r="D1790" t="inlineStr"/>
       <c r="E1790" t="inlineStr">
         <is>
-          <t>spider cross bearing configuration un iversal crossbearing size none color mx style fuso</t>
+          <t>spider cross bearing configuration iversal crossbearing size color mx style fuso</t>
         </is>
       </c>
       <c r="F1790" t="inlineStr">
         <is>
-          <t>spider cross bearing configuration un ivers cross size none color mx style fuso</t>
+          <t>spider cross bearing configuration ivers cross size color mx style fuso</t>
         </is>
       </c>
     </row>
@@ -43673,19 +43673,19 @@
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>oil seal mx configuration oilseal size none color style mitsubishi</t>
+          <t>oil seal mx configuration oilseal size color style mitsubishi</t>
         </is>
       </c>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr"/>
       <c r="E1792" t="inlineStr">
         <is>
-          <t>oil seal mx configuration oilseal size none color style mitsubishi</t>
+          <t>oil seal mx configuration oilseal size color style mitsubishi</t>
         </is>
       </c>
       <c r="F1792" t="inlineStr">
         <is>
-          <t>oil seal mx configuration oils size none color style mitsubishi</t>
+          <t>oil seal mx configuration oils size color style mitsubishi</t>
         </is>
       </c>
     </row>
@@ -43697,19 +43697,19 @@
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>ball joint mx configuration size none color mfmx style fuso</t>
+          <t>ball joint mx configuration size color mfmx style fuso</t>
         </is>
       </c>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr"/>
       <c r="E1793" t="inlineStr">
         <is>
-          <t>ball joint mx configuration size none color mfmx style fuso</t>
+          <t>ball joint mx configuration size color mfmx style fuso</t>
         </is>
       </c>
       <c r="F1793" t="inlineStr">
         <is>
-          <t>ball joint mx configuration size none color mfm style fuso</t>
+          <t>ball joint mx configuration size color mfm style fuso</t>
         </is>
       </c>
     </row>
@@ -43721,19 +43721,19 @@
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>brake adjuster assembly mx configuration front size none color</t>
+          <t>brake adjuster assembly mx configuration size color</t>
         </is>
       </c>
       <c r="C1794" t="inlineStr"/>
       <c r="D1794" t="inlineStr"/>
       <c r="E1794" t="inlineStr">
         <is>
-          <t>brake adjuster assembly mx configuration front size none color</t>
+          <t>brake adjuster assembly mx configuration size color</t>
         </is>
       </c>
       <c r="F1794" t="inlineStr">
         <is>
-          <t>brake adjuster assembly mx configuration front size none color</t>
+          <t>brake adjuster assembly mx configuration size color</t>
         </is>
       </c>
     </row>
@@ -43745,19 +43745,19 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>wheel bearin fmx configuration on size none color mfmx style</t>
+          <t>wheel bearin fmx configuration size color mfmx style</t>
         </is>
       </c>
       <c r="C1795" t="inlineStr"/>
       <c r="D1795" t="inlineStr"/>
       <c r="E1795" t="inlineStr">
         <is>
-          <t>wheel bearin fmx configuration on size none color mfmx style</t>
+          <t>wheel bearin fmx configuration size color mfmx style</t>
         </is>
       </c>
       <c r="F1795" t="inlineStr">
         <is>
-          <t>wheel bearin fmx configuration on size none color mfm style</t>
+          <t>wheel bearin fmx configuration size color mfm style</t>
         </is>
       </c>
     </row>
@@ -43769,19 +43769,19 @@
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>ring seal configuration nutring size none color mx style fuso</t>
+          <t>ring seal configuration nutring size color mx style fuso</t>
         </is>
       </c>
       <c r="C1796" t="inlineStr"/>
       <c r="D1796" t="inlineStr"/>
       <c r="E1796" t="inlineStr">
         <is>
-          <t>ring seal configuration nutring size none color mx style fuso</t>
+          <t>ring seal configuration nutring size color mx style fuso</t>
         </is>
       </c>
       <c r="F1796" t="inlineStr">
         <is>
-          <t>ring seal configuration nutri size none color mx style fuso</t>
+          <t>ring seal configuration nutri size color mx style fuso</t>
         </is>
       </c>
     </row>
@@ -43793,19 +43793,19 @@
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>lock plate configuration istanz spacer deadwheel size none color mx style fuso rel</t>
+          <t>lock plate configuration istanz spacer deadwheel size color mx style fuso rel</t>
         </is>
       </c>
       <c r="C1797" t="inlineStr"/>
       <c r="D1797" t="inlineStr"/>
       <c r="E1797" t="inlineStr">
         <is>
-          <t>lock plate configuration istanz spacer deadwheel size none color mx style fuso rel</t>
+          <t>lock plate configuration istanz spacer deadwheel size color mx style fuso rel</t>
         </is>
       </c>
       <c r="F1797" t="inlineStr">
         <is>
-          <t>lock plate configuration istan spacer dead size none color mx style fuso rel</t>
+          <t>lock plate configuration istan spacer dead size color mx style fuso rel</t>
         </is>
       </c>
     </row>
@@ -43817,19 +43817,19 @@
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>fan belt mx configuration size none color style fuso rel</t>
+          <t>fan belt mx configuration size color style fuso rel</t>
         </is>
       </c>
       <c r="C1798" t="inlineStr"/>
       <c r="D1798" t="inlineStr"/>
       <c r="E1798" t="inlineStr">
         <is>
-          <t>fan belt mx configuration size none color style fuso rel</t>
+          <t>fan belt mx configuration size color style fuso rel</t>
         </is>
       </c>
       <c r="F1798" t="inlineStr">
         <is>
-          <t>fan belt mx configuration size none color style fuso rel</t>
+          <t>fan belt mx configuration size color style fuso rel</t>
         </is>
       </c>
     </row>
@@ -43841,19 +43841,19 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>brake pads shoes lin ers mx configuration drum liner size none color stvle</t>
+          <t>brake pads shoes lin ers mx configuration drum liner size color stvle</t>
         </is>
       </c>
       <c r="C1799" t="inlineStr"/>
       <c r="D1799" t="inlineStr"/>
       <c r="E1799" t="inlineStr">
         <is>
-          <t>brake pads shoes lin ers mx configuration drum liner size none color stvle</t>
+          <t>brake pads shoes lin ers mx configuration drum liner size color stvle</t>
         </is>
       </c>
       <c r="F1799" t="inlineStr">
         <is>
-          <t>brake pads shoes lin ers mx configuration drum liner size none color stv</t>
+          <t>brake pads shoes lin ers mx configuration drum liner size color stv</t>
         </is>
       </c>
     </row>
@@ -43865,19 +43865,19 @@
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>hub bearing mx configuration front size none color stvle mltsliblshl</t>
+          <t>hub bearing mx configuration size color stvle mltsliblshl</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr"/>
       <c r="D1800" t="inlineStr"/>
       <c r="E1800" t="inlineStr">
         <is>
-          <t>hub bearing mx configuration front size none color stvle mltsliblshl</t>
+          <t>hub bearing mx configuration size color stvle mltsliblshl</t>
         </is>
       </c>
       <c r="F1800" t="inlineStr">
         <is>
-          <t>hub bearing mx configuration front size none color stv mlts</t>
+          <t>hub bearing mx configuration size color stv mlts</t>
         </is>
       </c>
     </row>
@@ -43889,19 +43889,19 @@
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>wheel bearing configuration rear size none color mx stvle mitsubishi</t>
+          <t>wheel bearing configuration rear size color mx stvle mitsubishi</t>
         </is>
       </c>
       <c r="C1801" t="inlineStr"/>
       <c r="D1801" t="inlineStr"/>
       <c r="E1801" t="inlineStr">
         <is>
-          <t>wheel bearing configuration rear size none color mx stvle mitsubishi</t>
+          <t>wheel bearing configuration rear size color mx stvle mitsubishi</t>
         </is>
       </c>
       <c r="F1801" t="inlineStr">
         <is>
-          <t>wheel bearing configuration rear size none color mx stv mitsubishi</t>
+          <t>wheel bearing configuration rear size color mx stv mitsubishi</t>
         </is>
       </c>
     </row>
@@ -44352,12 +44352,12 @@
       <c r="D1820" t="inlineStr"/>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -44376,12 +44376,12 @@
       <c r="D1821" t="inlineStr"/>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -44424,12 +44424,12 @@
       <c r="D1823" t="inlineStr"/>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -44496,12 +44496,12 @@
       <c r="D1826" t="inlineStr"/>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -46056,12 +46056,12 @@
       <c r="D1891" t="inlineStr"/>
       <c r="E1891" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
       <c r="F1891" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
     </row>
@@ -46080,12 +46080,12 @@
       <c r="D1892" t="inlineStr"/>
       <c r="E1892" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
       <c r="F1892" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
     </row>
@@ -46104,12 +46104,12 @@
       <c r="D1893" t="inlineStr"/>
       <c r="E1893" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
     </row>
@@ -46152,12 +46152,12 @@
       <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>rebar sabic</t>
+          <t>rebar سابك</t>
         </is>
       </c>
     </row>
@@ -47513,19 +47513,19 @@
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>neda male elictric plug with pin</t>
+          <t>neda male elictric plug pin</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>neda male elictric plug with pin</t>
+          <t>neda male elictric plug pin</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr">
         <is>
-          <t>neda male elic plug with pin</t>
+          <t>neda male elic plug pin</t>
         </is>
       </c>
     </row>
@@ -48864,12 +48864,12 @@
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -48888,12 +48888,12 @@
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -48912,12 +48912,12 @@
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -48960,12 +48960,12 @@
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -49008,12 +49008,12 @@
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -49193,19 +49193,19 @@
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>apply and supply reinforcement steel dim</t>
+          <t>apply supply reinforcement steel dim</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr"/>
       <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>apply and supply reinforcement steel dim</t>
+          <t>apply supply reinforcement steel dim</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr">
         <is>
-          <t>apply and supply reinforcement steel dim</t>
+          <t>apply supply reinforcement steel dim</t>
         </is>
       </c>
     </row>
@@ -49217,19 +49217,19 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>apply and supply black steel pipes dim</t>
+          <t>apply supply black steel pipes dim</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr"/>
       <c r="D2023" t="inlineStr"/>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>apply and supply black steel pipes dim</t>
+          <t>apply supply black steel pipes dim</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr">
         <is>
-          <t>apply and supply black steel pipes dim</t>
+          <t>apply supply black steel pipes dim</t>
         </is>
       </c>
     </row>
@@ -49697,19 +49697,19 @@
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>cisco wireless controller rack mounting kit part no</t>
+          <t>cisco wireless controller rack mounting kit</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr"/>
       <c r="D2043" t="inlineStr"/>
       <c r="E2043" t="inlineStr">
         <is>
-          <t>cisco wireless controller rack mounting kit part no</t>
+          <t>cisco wireless controller rack mounting kit</t>
         </is>
       </c>
       <c r="F2043" t="inlineStr">
         <is>
-          <t>cisco wireless controller rack mounting kit part no</t>
+          <t>cisco wireless controller rack mounting kit</t>
         </is>
       </c>
     </row>
@@ -49721,19 +49721,19 @@
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>cisco business port un managed switch</t>
+          <t>cisco business port managed switch</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr"/>
       <c r="D2044" t="inlineStr"/>
       <c r="E2044" t="inlineStr">
         <is>
-          <t>cisco business port un managed switch</t>
+          <t>cisco business port managed switch</t>
         </is>
       </c>
       <c r="F2044" t="inlineStr">
         <is>
-          <t>cisco business port un managed switch</t>
+          <t>cisco business port managed switch</t>
         </is>
       </c>
     </row>
@@ -50009,19 +50009,19 @@
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr"/>
       <c r="D2056" t="inlineStr"/>
       <c r="E2056" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="F2056" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
     </row>
@@ -50033,19 +50033,19 @@
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>elie saab dual flush push plate for rak ecofix modules matt gold</t>
+          <t>elie saab dual flush push plate rak ecofix modules matt gold</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr"/>
       <c r="D2057" t="inlineStr"/>
       <c r="E2057" t="inlineStr">
         <is>
-          <t>elie saab dual flush push plate for rak ecofix modules matt gold</t>
+          <t>elie saab dual flush push plate rak ecofix modules matt gold</t>
         </is>
       </c>
       <c r="F2057" t="inlineStr">
         <is>
-          <t>elie saab dual flush push plate for rak ecof modules matt gold</t>
+          <t>elie saab dual flush push plate rak ecof modules matt gold</t>
         </is>
       </c>
     </row>
@@ -50081,19 +50081,19 @@
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>kludi rak click clack waste fitting with over flow hole chrome finish</t>
+          <t>kludi rak click clack waste fitting flow hole chrome finish</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr"/>
       <c r="D2059" t="inlineStr"/>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>kludi rak click clack waste fitting with over flow hole chrome finish</t>
+          <t>kludi rak click clack waste fitting flow hole chrome finish</t>
         </is>
       </c>
       <c r="F2059" t="inlineStr">
         <is>
-          <t>klud rak click clack waste fitting with over flow hole chrome finish</t>
+          <t>klud rak click clack waste fitting flow hole chrome finish</t>
         </is>
       </c>
     </row>
@@ -50105,19 +50105,19 @@
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>kludi rak hand held shower with quick lime deposit cleaning system chrome finish</t>
+          <t>kludi rak hand held shower quick lime deposit cleaning chrome finish</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr"/>
       <c r="D2060" t="inlineStr"/>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>kludi rak hand held shower with quick lime deposit cleaning system chrome finish</t>
+          <t>kludi rak hand held shower quick lime deposit cleaning chrome finish</t>
         </is>
       </c>
       <c r="F2060" t="inlineStr">
         <is>
-          <t>klud rak hand held shower with quick lime deposit cleaning system chrome finish</t>
+          <t>klud rak hand held shower quick lime deposit cleaning chrome finish</t>
         </is>
       </c>
     </row>
@@ -50129,19 +50129,19 @@
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>kludi rak abs shattaf with hose and holder chrome finish</t>
+          <t>kludi rak abs shattaf hose holder chrome finish</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr"/>
       <c r="D2061" t="inlineStr"/>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>kludi rak abs shattaf with hose and holder chrome finish</t>
+          <t>kludi rak abs shattaf hose holder chrome finish</t>
         </is>
       </c>
       <c r="F2061" t="inlineStr">
         <is>
-          <t>klud rak abs shatta with hose and holder chrome finish</t>
+          <t>klud rak abs shatta hose holder chrome finish</t>
         </is>
       </c>
     </row>
@@ -50153,19 +50153,19 @@
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>rak morning water closet rimless close coupled back open trap tank soft se</t>
+          <t>rak morning water closet rimless close coupled open trap tank soft se</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr"/>
       <c r="D2062" t="inlineStr"/>
       <c r="E2062" t="inlineStr">
         <is>
-          <t>rak morning water closet rimless close coupled back open trap tank soft se</t>
+          <t>rak morning water closet rimless close coupled open trap tank soft se</t>
         </is>
       </c>
       <c r="F2062" t="inlineStr">
         <is>
-          <t>rak morning water closet rimless close coupled back open trap tank soft se</t>
+          <t>rak morning water closet rimless close coupled open trap tank soft se</t>
         </is>
       </c>
     </row>
@@ -50177,19 +50177,19 @@
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr"/>
       <c r="D2063" t="inlineStr"/>
       <c r="E2063" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="F2063" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
     </row>
@@ -50249,19 +50249,19 @@
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>elie saab brass shataff with flex hose and holder matt gold pvd</t>
+          <t>elie saab brass shataff flex hose holder matt gold pvd</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr"/>
       <c r="D2066" t="inlineStr"/>
       <c r="E2066" t="inlineStr">
         <is>
-          <t>elie saab brass shataff with flex hose and holder matt gold pvd</t>
+          <t>elie saab brass shataff flex hose holder matt gold pvd</t>
         </is>
       </c>
       <c r="F2066" t="inlineStr">
         <is>
-          <t>elie saab brass shataf with flex hose and holder matt gold pvd</t>
+          <t>elie saab brass shataf flex hose holder matt gold pvd</t>
         </is>
       </c>
     </row>
@@ -50393,19 +50393,19 @@
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr"/>
       <c r="D2072" t="inlineStr"/>
       <c r="E2072" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="F2072" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
     </row>
@@ -50441,19 +50441,19 @@
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>elie saab rimless wall hung wc with hidden fixations soft close seat cover quick release</t>
+          <t>elie saab rimless wall hung wc hidden fixations soft close seat cover quick release</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr"/>
       <c r="D2074" t="inlineStr"/>
       <c r="E2074" t="inlineStr">
         <is>
-          <t>elie saab rimless wall hung wc with hidden fixations soft close seat cover quick release</t>
+          <t>elie saab rimless wall hung wc hidden fixations soft close seat cover quick release</t>
         </is>
       </c>
       <c r="F2074" t="inlineStr">
         <is>
-          <t>elie saab rimless wall hung wc with hidden fixations soft close seat cover quick release</t>
+          <t>elie saab rimless wall hung wc hidden fixations soft close seat cover quick release</t>
         </is>
       </c>
     </row>
@@ -50513,19 +50513,19 @@
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>kludi rak single lever bath and shower mixer dn wall fastening chrome finish</t>
+          <t>kludi rak single lever bath shower mixer dn wall fastening chrome finish</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr"/>
       <c r="D2077" t="inlineStr"/>
       <c r="E2077" t="inlineStr">
         <is>
-          <t>kludi rak single lever bath and shower mixer dn wall fastening chrome finish</t>
+          <t>kludi rak single lever bath shower mixer dn wall fastening chrome finish</t>
         </is>
       </c>
       <c r="F2077" t="inlineStr">
         <is>
-          <t>klud rak single lever bath and shower mixer dn wall fastening chrome finish</t>
+          <t>klud rak single lever bath shower mixer dn wall fastening chrome finish</t>
         </is>
       </c>
     </row>
@@ -50537,19 +50537,19 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>kludi rak floor drain with heavy steel mesh chrome finish</t>
+          <t>kludi rak floor drain heavy steel mesh chrome finish</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr"/>
       <c r="D2078" t="inlineStr"/>
       <c r="E2078" t="inlineStr">
         <is>
-          <t>kludi rak floor drain with heavy steel mesh chrome finish</t>
+          <t>kludi rak floor drain heavy steel mesh chrome finish</t>
         </is>
       </c>
       <c r="F2078" t="inlineStr">
         <is>
-          <t>klud rak floor drain with heavy steel mesh chrome finish</t>
+          <t>klud rak floor drain heavy steel mesh chrome finish</t>
         </is>
       </c>
     </row>
@@ -50561,19 +50561,19 @@
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>kludi rak paper holder wall fastening with screws and dowels chrome finish</t>
+          <t>kludi rak paper holder wall fastening screws dowels chrome finish</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr"/>
       <c r="D2079" t="inlineStr"/>
       <c r="E2079" t="inlineStr">
         <is>
-          <t>kludi rak paper holder wall fastening with screws and dowels chrome finish</t>
+          <t>kludi rak paper holder wall fastening screws dowels chrome finish</t>
         </is>
       </c>
       <c r="F2079" t="inlineStr">
         <is>
-          <t>klud rak paper holder wall fastening with screws and dowels chrome finish</t>
+          <t>klud rak paper holder wall fastening screws dowels chrome finish</t>
         </is>
       </c>
     </row>
@@ -50585,19 +50585,19 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr"/>
       <c r="D2080" t="inlineStr"/>
       <c r="E2080" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
       <c r="F2080" t="inlineStr">
         <is>
-          <t>elie saab vanity finishing top matt grey</t>
+          <t>elie saab vanity finishing matt grey</t>
         </is>
       </c>
     </row>
@@ -50609,19 +50609,19 @@
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>elie saab mirror with no frame light</t>
+          <t>elie saab mirror frame light</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr"/>
       <c r="D2081" t="inlineStr"/>
       <c r="E2081" t="inlineStr">
         <is>
-          <t>elie saab mirror with no frame light</t>
+          <t>elie saab mirror frame light</t>
         </is>
       </c>
       <c r="F2081" t="inlineStr">
         <is>
-          <t>elie saab mirror with no frame light</t>
+          <t>elie saab mirror frame light</t>
         </is>
       </c>
     </row>
@@ -50633,19 +50633,19 @@
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>elie saab mirror with no frame light</t>
+          <t>elie saab mirror frame light</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr"/>
       <c r="D2082" t="inlineStr"/>
       <c r="E2082" t="inlineStr">
         <is>
-          <t>elie saab mirror with no frame light</t>
+          <t>elie saab mirror frame light</t>
         </is>
       </c>
       <c r="F2082" t="inlineStr">
         <is>
-          <t>elie saab mirror with no frame light</t>
+          <t>elie saab mirror frame light</t>
         </is>
       </c>
     </row>
@@ -50657,19 +50657,19 @@
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>elie saab angle valve for shataff matt gold pvd</t>
+          <t>elie saab angle valve shataff matt gold pvd</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr"/>
       <c r="D2083" t="inlineStr"/>
       <c r="E2083" t="inlineStr">
         <is>
-          <t>elie saab angle valve for shataff matt gold pvd</t>
+          <t>elie saab angle valve shataff matt gold pvd</t>
         </is>
       </c>
       <c r="F2083" t="inlineStr">
         <is>
-          <t>elie saab angle valve for shataf matt gold pvd</t>
+          <t>elie saab angle valve shataf matt gold pvd</t>
         </is>
       </c>
     </row>
@@ -50753,19 +50753,19 @@
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>kludi rak towel ring wall fastening with screws and dowels chrome finish</t>
+          <t>kludi rak towel ring wall fastening screws dowels chrome finish</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr"/>
       <c r="D2087" t="inlineStr"/>
       <c r="E2087" t="inlineStr">
         <is>
-          <t>kludi rak towel ring wall fastening with screws and dowels chrome finish</t>
+          <t>kludi rak towel ring wall fastening screws dowels chrome finish</t>
         </is>
       </c>
       <c r="F2087" t="inlineStr">
         <is>
-          <t>klud rak towel ring wall fastening with screws and dowels chrome finish</t>
+          <t>klud rak towel ring wall fastening screws dowels chrome finish</t>
         </is>
       </c>
     </row>
@@ -51257,19 +51257,19 @@
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr"/>
       <c r="D2108" t="inlineStr"/>
       <c r="E2108" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="F2108" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
     </row>
@@ -51833,19 +51833,19 @@
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>grey cast iron manhole cover frame jmcc clear opening dia over base</t>
+          <t>grey cast iron manhole cover frame jmcc clear opening dia base</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr"/>
       <c r="E2132" t="inlineStr">
         <is>
-          <t>grey cast iron manhole cover frame jmcc clear opening dia over base</t>
+          <t>grey cast iron manhole cover frame jmcc clear opening dia base</t>
         </is>
       </c>
       <c r="F2132" t="inlineStr">
         <is>
-          <t>grey cast iron manhole cover frame jmcc clear opening dia over base</t>
+          <t>grey cast iron manhole cover frame jmcc clear opening dia base</t>
         </is>
       </c>
     </row>
@@ -52056,12 +52056,12 @@
       <c r="D2141" t="inlineStr"/>
       <c r="E2141" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2141" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -52080,12 +52080,12 @@
       <c r="D2142" t="inlineStr"/>
       <c r="E2142" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2142" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -52104,12 +52104,12 @@
       <c r="D2143" t="inlineStr"/>
       <c r="E2143" t="inlineStr">
         <is>
-          <t>plain wire rod coil sabic</t>
+          <t>plain wire rod coil سابك</t>
         </is>
       </c>
       <c r="F2143" t="inlineStr">
         <is>
-          <t>plain wire rod coil sabic</t>
+          <t>plain wire rod coil سابك</t>
         </is>
       </c>
     </row>
@@ -52128,12 +52128,12 @@
       <c r="D2144" t="inlineStr"/>
       <c r="E2144" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2144" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -52152,12 +52152,12 @@
       <c r="D2145" t="inlineStr"/>
       <c r="E2145" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2145" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -52176,12 +52176,12 @@
       <c r="D2146" t="inlineStr"/>
       <c r="E2146" t="inlineStr">
         <is>
-          <t>plain wire rod coil sabic</t>
+          <t>plain wire rod coil سابك</t>
         </is>
       </c>
       <c r="F2146" t="inlineStr">
         <is>
-          <t>plain wire rod coil sabic</t>
+          <t>plain wire rod coil سابك</t>
         </is>
       </c>
     </row>
@@ -52817,19 +52817,19 @@
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>saudi deformed rebar off cut</t>
+          <t>saudi deformed rebar cut</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr"/>
       <c r="D2173" t="inlineStr"/>
       <c r="E2173" t="inlineStr">
         <is>
-          <t>saudi deformed rebar off cut</t>
+          <t>saudi deformed rebar cut</t>
         </is>
       </c>
       <c r="F2173" t="inlineStr">
         <is>
-          <t>saudi deformed rebar off cut</t>
+          <t>saudi deformed rebar cut</t>
         </is>
       </c>
     </row>
@@ -52968,12 +52968,12 @@
       <c r="D2179" t="inlineStr"/>
       <c r="E2179" t="inlineStr">
         <is>
-          <t>coil sabic</t>
+          <t>coil سابك</t>
         </is>
       </c>
       <c r="F2179" t="inlineStr">
         <is>
-          <t>coil sabic</t>
+          <t>coil سابك</t>
         </is>
       </c>
     </row>
@@ -53105,19 +53105,19 @@
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>مواسير حديد جدول واالكواع قسامات اكسسوارات الالزمه تركيب نظام االطفاء ul sec listeed as</t>
+          <t>مواسير حديد جدول واالكواع قسامات اكسسوارات الالزمه تركيب نظام االطفاء ul sec listeed</t>
         </is>
       </c>
       <c r="C2185" t="inlineStr"/>
       <c r="D2185" t="inlineStr"/>
       <c r="E2185" t="inlineStr">
         <is>
-          <t>مواسير حديد جدول واالكواع قسامات اكسسوارات الالزمه تركيب نظام االطفاء ul sec listeed as</t>
+          <t>مواسير حديد جدول واالكواع قسامات اكسسوارات الالزمه تركيب نظام االطفاء ul sec listeed</t>
         </is>
       </c>
       <c r="F2185" t="inlineStr">
         <is>
-          <t>مواسير حديد جدول واع قسام اكسسوارات الال تركيب نظام لطفاء ul sec listeed as</t>
+          <t>مواسير حديد جدول واع قسام اكسسوارات الال تركيب نظام لطفاء ul sec listeed</t>
         </is>
       </c>
     </row>
@@ -53201,19 +53201,19 @@
       </c>
       <c r="B2189" t="inlineStr">
         <is>
-          <t>co firex طفايه حريق</t>
+          <t>firex طفايه حريق</t>
         </is>
       </c>
       <c r="C2189" t="inlineStr"/>
       <c r="D2189" t="inlineStr"/>
       <c r="E2189" t="inlineStr">
         <is>
-          <t>co firex طفايه حريق</t>
+          <t>firex طفايه حريق</t>
         </is>
       </c>
       <c r="F2189" t="inlineStr">
         <is>
-          <t>co firex طفا حريق</t>
+          <t>firex طفا حريق</t>
         </is>
       </c>
     </row>
@@ -53640,12 +53640,12 @@
       <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr">
         <is>
-          <t>حديد تسليح sabic</t>
+          <t>حديد تسليح سابك</t>
         </is>
       </c>
       <c r="F2207" t="inlineStr">
         <is>
-          <t>حديد تسليح sabic</t>
+          <t>حديد تسليح سابك</t>
         </is>
       </c>
     </row>
@@ -54017,19 +54017,19 @@
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>fp iu or version hr</t>
+          <t>fp iu version hr</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr"/>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>fp iu or version hr</t>
+          <t>fp iu version hr</t>
         </is>
       </c>
       <c r="F2223" t="inlineStr">
         <is>
-          <t>fp iu or version hr</t>
+          <t>fp iu version hr</t>
         </is>
       </c>
     </row>
@@ -54504,12 +54504,12 @@
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>sabic steel</t>
+          <t>سابك steel</t>
         </is>
       </c>
       <c r="F2243" t="inlineStr">
         <is>
-          <t>sabic steel</t>
+          <t>سابك steel</t>
         </is>
       </c>
     </row>
@@ -54528,12 +54528,12 @@
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>sabic steel</t>
+          <t>سابك steel</t>
         </is>
       </c>
       <c r="F2244" t="inlineStr">
         <is>
-          <t>sabic steel</t>
+          <t>سابك steel</t>
         </is>
       </c>
     </row>
@@ -54552,12 +54552,12 @@
       <c r="D2245" t="inlineStr"/>
       <c r="E2245" t="inlineStr">
         <is>
-          <t>sabic steel</t>
+          <t>سابك steel</t>
         </is>
       </c>
       <c r="F2245" t="inlineStr">
         <is>
-          <t>sabic steel</t>
+          <t>سابك steel</t>
         </is>
       </c>
     </row>
@@ -56448,12 +56448,12 @@
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -56520,12 +56520,12 @@
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -57953,19 +57953,19 @@
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>fp iu or version hr</t>
+          <t>fp iu version hr</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr"/>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>fp iu or version hr</t>
+          <t>fp iu version hr</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr">
         <is>
-          <t>fp iu or version hr</t>
+          <t>fp iu version hr</t>
         </is>
       </c>
     </row>
@@ -60497,19 +60497,19 @@
       </c>
       <c r="B2493" t="inlineStr">
         <is>
-          <t>fabrication supply and installation of aluminum</t>
+          <t>fabrication supply installation aluminum</t>
         </is>
       </c>
       <c r="C2493" t="inlineStr"/>
       <c r="D2493" t="inlineStr"/>
       <c r="E2493" t="inlineStr">
         <is>
-          <t>fabrication supply and installation of aluminum</t>
+          <t>fabrication supply installation aluminum</t>
         </is>
       </c>
       <c r="F2493" t="inlineStr">
         <is>
-          <t>fabrication supply and installation of aluminum</t>
+          <t>fabrication supply installation aluminum</t>
         </is>
       </c>
     </row>
@@ -61601,19 +61601,19 @@
       </c>
       <c r="B2539" t="inlineStr">
         <is>
-          <t>duct thermal insulation thickness and density</t>
+          <t>duct thermal insulation thickness density</t>
         </is>
       </c>
       <c r="C2539" t="inlineStr"/>
       <c r="D2539" t="inlineStr"/>
       <c r="E2539" t="inlineStr">
         <is>
-          <t>duct thermal insulation thickness and density</t>
+          <t>duct thermal insulation thickness density</t>
         </is>
       </c>
       <c r="F2539" t="inlineStr">
         <is>
-          <t>duct thermal insulation thickness and density</t>
+          <t>duct thermal insulation thickness density</t>
         </is>
       </c>
     </row>
@@ -61721,19 +61721,19 @@
       </c>
       <c r="B2544" t="inlineStr">
         <is>
-          <t>integrated tvr air conditioning variable refrigerant flow system cooling and heating</t>
+          <t>integrated tvr air conditioning variable refrigerant flow cooling heating</t>
         </is>
       </c>
       <c r="C2544" t="inlineStr"/>
       <c r="D2544" t="inlineStr"/>
       <c r="E2544" t="inlineStr">
         <is>
-          <t>integrated tvr air conditioning variable refrigerant flow system cooling and heating</t>
+          <t>integrated tvr air conditioning variable refrigerant flow cooling heating</t>
         </is>
       </c>
       <c r="F2544" t="inlineStr">
         <is>
-          <t>integrated tvr air conditioning variable refrigerant flow system cooling and heating</t>
+          <t>integrated tvr air conditioning variable refrigerant flow cooling heating</t>
         </is>
       </c>
     </row>
@@ -61793,19 +61793,19 @@
       </c>
       <c r="B2547" t="inlineStr">
         <is>
-          <t>ovation ve ip includes light engine only powerkon power cord no lens tube control pi</t>
+          <t>ovation ve ip includes light engine powerkon power cord lens tube control pi</t>
         </is>
       </c>
       <c r="C2547" t="inlineStr"/>
       <c r="D2547" t="inlineStr"/>
       <c r="E2547" t="inlineStr">
         <is>
-          <t>ovation ve ip includes light engine only powerkon power cord no lens tube control pi</t>
+          <t>ovation ve ip includes light engine powerkon power cord lens tube control pi</t>
         </is>
       </c>
       <c r="F2547" t="inlineStr">
         <is>
-          <t>ovation ve ip includes light engine only power power cord no lens tube control pi</t>
+          <t>ovation ve ip includes light engine power power cord lens tube control pi</t>
         </is>
       </c>
     </row>
@@ -61817,19 +61817,19 @@
       </c>
       <c r="B2548" t="inlineStr">
         <is>
-          <t>lg conceal out ph inv</t>
+          <t>lg conceal ph inv</t>
         </is>
       </c>
       <c r="C2548" t="inlineStr"/>
       <c r="D2548" t="inlineStr"/>
       <c r="E2548" t="inlineStr">
         <is>
-          <t>lg conceal out ph inv</t>
+          <t>lg conceal ph inv</t>
         </is>
       </c>
       <c r="F2548" t="inlineStr">
         <is>
-          <t>lg conceal out ph inv</t>
+          <t>lg conceal ph inv</t>
         </is>
       </c>
     </row>
@@ -61841,19 +61841,19 @@
       </c>
       <c r="B2549" t="inlineStr">
         <is>
-          <t>lg concealed out ph</t>
+          <t>lg concealed ph</t>
         </is>
       </c>
       <c r="C2549" t="inlineStr"/>
       <c r="D2549" t="inlineStr"/>
       <c r="E2549" t="inlineStr">
         <is>
-          <t>lg concealed out ph</t>
+          <t>lg concealed ph</t>
         </is>
       </c>
       <c r="F2549" t="inlineStr">
         <is>
-          <t>lg concealed out ph</t>
+          <t>lg concealed ph</t>
         </is>
       </c>
     </row>
@@ -61913,19 +61913,19 @@
       </c>
       <c r="B2552" t="inlineStr">
         <is>
-          <t>lg conceal out ph inverter</t>
+          <t>lg conceal ph inverter</t>
         </is>
       </c>
       <c r="C2552" t="inlineStr"/>
       <c r="D2552" t="inlineStr"/>
       <c r="E2552" t="inlineStr">
         <is>
-          <t>lg conceal out ph inverter</t>
+          <t>lg conceal ph inverter</t>
         </is>
       </c>
       <c r="F2552" t="inlineStr">
         <is>
-          <t>lg conceal out ph inverter</t>
+          <t>lg conceal ph inverter</t>
         </is>
       </c>
     </row>
@@ -61985,19 +61985,19 @@
       </c>
       <c r="B2555" t="inlineStr">
         <is>
-          <t>lg conceal out ph inverter</t>
+          <t>lg conceal ph inverter</t>
         </is>
       </c>
       <c r="C2555" t="inlineStr"/>
       <c r="D2555" t="inlineStr"/>
       <c r="E2555" t="inlineStr">
         <is>
-          <t>lg conceal out ph inverter</t>
+          <t>lg conceal ph inverter</t>
         </is>
       </c>
       <c r="F2555" t="inlineStr">
         <is>
-          <t>lg conceal out ph inverter</t>
+          <t>lg conceal ph inverter</t>
         </is>
       </c>
     </row>
@@ -62088,12 +62088,12 @@
       <c r="D2559" t="inlineStr"/>
       <c r="E2559" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2559" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -62136,12 +62136,12 @@
       <c r="D2561" t="inlineStr"/>
       <c r="E2561" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2561" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -62160,12 +62160,12 @@
       <c r="D2562" t="inlineStr"/>
       <c r="E2562" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2562" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -62184,12 +62184,12 @@
       <c r="D2563" t="inlineStr"/>
       <c r="E2563" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2563" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -62208,12 +62208,12 @@
       <c r="D2564" t="inlineStr"/>
       <c r="E2564" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2564" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -62232,12 +62232,12 @@
       <c r="D2565" t="inlineStr"/>
       <c r="E2565" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2565" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -62393,19 +62393,19 @@
       </c>
       <c r="B2572" t="inlineStr">
         <is>
-          <t>gl concrete master chemical additives for</t>
+          <t>gl concrete master chemical additives</t>
         </is>
       </c>
       <c r="C2572" t="inlineStr"/>
       <c r="D2572" t="inlineStr"/>
       <c r="E2572" t="inlineStr">
         <is>
-          <t>gl concrete master chemical additives for</t>
+          <t>gl concrete master chemical additives</t>
         </is>
       </c>
       <c r="F2572" t="inlineStr">
         <is>
-          <t>gl concrete master chemical additives for</t>
+          <t>gl concrete master chemical additives</t>
         </is>
       </c>
     </row>
@@ -62417,19 +62417,19 @@
       </c>
       <c r="B2573" t="inlineStr">
         <is>
-          <t>gl concrete master chemical additives for</t>
+          <t>gl concrete master chemical additives</t>
         </is>
       </c>
       <c r="C2573" t="inlineStr"/>
       <c r="D2573" t="inlineStr"/>
       <c r="E2573" t="inlineStr">
         <is>
-          <t>gl concrete master chemical additives for</t>
+          <t>gl concrete master chemical additives</t>
         </is>
       </c>
       <c r="F2573" t="inlineStr">
         <is>
-          <t>gl concrete master chemical additives for</t>
+          <t>gl concrete master chemical additives</t>
         </is>
       </c>
     </row>
@@ -64200,12 +64200,12 @@
       <c r="D2647" t="inlineStr"/>
       <c r="E2647" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2647" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -64248,12 +64248,12 @@
       <c r="D2649" t="inlineStr"/>
       <c r="E2649" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2649" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -64272,12 +64272,12 @@
       <c r="D2650" t="inlineStr"/>
       <c r="E2650" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2650" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -64296,12 +64296,12 @@
       <c r="D2651" t="inlineStr"/>
       <c r="E2651" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2651" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -64320,12 +64320,12 @@
       <c r="D2652" t="inlineStr"/>
       <c r="E2652" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2652" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -64344,12 +64344,12 @@
       <c r="D2653" t="inlineStr"/>
       <c r="E2653" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F2653" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -64361,19 +64361,19 @@
       </c>
       <c r="B2654" t="inlineStr">
         <is>
-          <t>airfield lamp gn is genesis center centerli</t>
+          <t>airfield lamp gn genesis center centerli</t>
         </is>
       </c>
       <c r="C2654" t="inlineStr"/>
       <c r="D2654" t="inlineStr"/>
       <c r="E2654" t="inlineStr">
         <is>
-          <t>airfield lamp gn is genesis center centerli</t>
+          <t>airfield lamp gn genesis center centerli</t>
         </is>
       </c>
       <c r="F2654" t="inlineStr">
         <is>
-          <t>airfield lamp gn is genesis center center</t>
+          <t>airfield lamp gn genesis center center</t>
         </is>
       </c>
     </row>
@@ -64673,19 +64673,19 @@
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>ups kva three phase input thr</t>
+          <t>ups kva phase input thr</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr"/>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>ups kva three phase input thr</t>
+          <t>ups kva phase input thr</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>ups kva three phase input thr</t>
+          <t>ups kva phase input thr</t>
         </is>
       </c>
     </row>
@@ -67817,19 +67817,19 @@
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>ايطالي top فرات سرايا قطاع</t>
+          <t>ايطالي فرات سرايا قطاع</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr"/>
       <c r="D2798" t="inlineStr"/>
       <c r="E2798" t="inlineStr">
         <is>
-          <t>ايطالي top فرات سرايا قطاع</t>
+          <t>ايطالي فرات سرايا قطاع</t>
         </is>
       </c>
       <c r="F2798" t="inlineStr">
         <is>
-          <t>ايطالي top فرات سرايا قطاع</t>
+          <t>ايطالي فرات سرايا قطاع</t>
         </is>
       </c>
     </row>
@@ -68417,19 +68417,19 @@
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>kva kw battery backup uninterruptible power supply ups and conditioner</t>
+          <t>kva kw battery backup uninterruptible power supply ups conditioner</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr"/>
       <c r="D2823" t="inlineStr"/>
       <c r="E2823" t="inlineStr">
         <is>
-          <t>kva kw battery backup uninterruptible power supply ups and conditioner</t>
+          <t>kva kw battery backup uninterruptible power supply ups conditioner</t>
         </is>
       </c>
       <c r="F2823" t="inlineStr">
         <is>
-          <t>kva kw battery backup uninterruptible power supply ups and conditioner</t>
+          <t>kva kw battery backup uninterruptible power supply ups conditioner</t>
         </is>
       </c>
     </row>
@@ -68489,19 +68489,19 @@
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr"/>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="F2826" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
     </row>
@@ -68513,19 +68513,19 @@
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr"/>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr">
         <is>
-          <t>cisco cbs managed port ge full poe</t>
+          <t>cisco cbs managed port ge poe</t>
         </is>
       </c>
     </row>
@@ -68921,19 +68921,19 @@
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>pvc emt conduit and fittings</t>
+          <t>pvc emt conduit fittings</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr"/>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>pvc emt conduit and fittings</t>
+          <t>pvc emt conduit fittings</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr">
         <is>
-          <t>pvc emt conduit and fittings</t>
+          <t>pvc emt conduit fittings</t>
         </is>
       </c>
     </row>
@@ -68993,19 +68993,19 @@
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>installation testing and handover the lighting system</t>
+          <t>installation testing handover lighting</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr"/>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>installation testing and handover the lighting system</t>
+          <t>installation testing handover lighting</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr">
         <is>
-          <t>installation testing and handover the lighting system</t>
+          <t>installation testing handover lighting</t>
         </is>
       </c>
     </row>
@@ -69017,19 +69017,19 @@
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>ruller up shutter</t>
+          <t>ruller shutter</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr"/>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>ruller up shutter</t>
+          <t>ruller shutter</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr">
         <is>
-          <t>ruller up shutter</t>
+          <t>ruller shutter</t>
         </is>
       </c>
     </row>
@@ -69065,19 +69065,19 @@
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>fire fitting</t>
+          <t>fitting</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr"/>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>fire fitting</t>
+          <t>fitting</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr">
         <is>
-          <t>fire fitting</t>
+          <t>fitting</t>
         </is>
       </c>
     </row>
@@ -69161,19 +69161,19 @@
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>fire alarm system</t>
+          <t>alarm</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr"/>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>fire alarm system</t>
+          <t>alarm</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr">
         <is>
-          <t>fire alarm system</t>
+          <t>alarm</t>
         </is>
       </c>
     </row>
@@ -69497,19 +69497,19 @@
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr"/>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
     </row>
@@ -69545,19 +69545,19 @@
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr"/>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
     </row>
@@ -69665,19 +69665,19 @@
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>mada clamp suitable for main channel with hole</t>
+          <t>mada clamp suitable main channel hole</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr"/>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>mada clamp suitable for main channel with hole</t>
+          <t>mada clamp suitable main channel hole</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr">
         <is>
-          <t>mada clamp suitable for main channel with hole</t>
+          <t>mada clamp suitable main channel hole</t>
         </is>
       </c>
     </row>
@@ -69977,19 +69977,19 @@
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>mada fire guard acrylic sealant</t>
+          <t>mada guard acrylic sealant</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr"/>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>mada fire guard acrylic sealant</t>
+          <t>mada guard acrylic sealant</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr">
         <is>
-          <t>mada fire guard acrylic sealant</t>
+          <t>mada guard acrylic sealant</t>
         </is>
       </c>
     </row>
@@ -70241,19 +70241,19 @@
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr"/>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr">
         <is>
-          <t>freight bangkok to dammam</t>
+          <t>freight bangkok dammam</t>
         </is>
       </c>
     </row>
@@ -70409,19 +70409,19 @@
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>canned champignons mushrooms whole</t>
+          <t>canned champignons mushrooms</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr"/>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>canned champignons mushrooms whole</t>
+          <t>canned champignons mushrooms</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr">
         <is>
-          <t>canned champignons mushrooms whole</t>
+          <t>canned champignons mushrooms</t>
         </is>
       </c>
     </row>
@@ -70913,19 +70913,19 @@
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr"/>
       <c r="D2924" t="inlineStr"/>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
       <c r="F2924" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
     </row>
@@ -71129,19 +71129,19 @@
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr"/>
       <c r="D2933" t="inlineStr"/>
       <c r="E2933" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
       <c r="F2933" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
     </row>
@@ -71561,19 +71561,19 @@
       </c>
       <c r="B2951" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
       <c r="C2951" t="inlineStr"/>
       <c r="D2951" t="inlineStr"/>
       <c r="E2951" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
       <c r="F2951" t="inlineStr">
         <is>
-          <t>set of pcs steak knives</t>
+          <t>set pcs steak knives</t>
         </is>
       </c>
     </row>
@@ -71609,19 +71609,19 @@
       </c>
       <c r="B2953" t="inlineStr">
         <is>
-          <t>freight nansha china to riyadh saudi arabia</t>
+          <t>freight nansha china riyadh saudi arabia</t>
         </is>
       </c>
       <c r="C2953" t="inlineStr"/>
       <c r="D2953" t="inlineStr"/>
       <c r="E2953" t="inlineStr">
         <is>
-          <t>freight nansha china to riyadh saudi arabia</t>
+          <t>freight nansha china riyadh saudi arabia</t>
         </is>
       </c>
       <c r="F2953" t="inlineStr">
         <is>
-          <t>freight nansha china to riyadh saudi arabia</t>
+          <t>freight nansha china riyadh saudi arabia</t>
         </is>
       </c>
     </row>
@@ -71993,19 +71993,19 @@
       </c>
       <c r="B2969" t="inlineStr">
         <is>
-          <t>kimco glass wool one side facing</t>
+          <t>kimco glass wool facing</t>
         </is>
       </c>
       <c r="C2969" t="inlineStr"/>
       <c r="D2969" t="inlineStr"/>
       <c r="E2969" t="inlineStr">
         <is>
-          <t>kimco glass wool one side facing</t>
+          <t>kimco glass wool facing</t>
         </is>
       </c>
       <c r="F2969" t="inlineStr">
         <is>
-          <t>kimco glass wool one side facing</t>
+          <t>kimco glass wool facing</t>
         </is>
       </c>
     </row>
@@ -72185,19 +72185,19 @@
       </c>
       <c r="B2977" t="inlineStr">
         <is>
-          <t>transportation to the port only</t>
+          <t>transportation port</t>
         </is>
       </c>
       <c r="C2977" t="inlineStr"/>
       <c r="D2977" t="inlineStr"/>
       <c r="E2977" t="inlineStr">
         <is>
-          <t>transportation to the port only</t>
+          <t>transportation port</t>
         </is>
       </c>
       <c r="F2977" t="inlineStr">
         <is>
-          <t>transportation to the port only</t>
+          <t>transportation port</t>
         </is>
       </c>
     </row>
@@ -72209,19 +72209,19 @@
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>kimco glass wool one side facing</t>
+          <t>kimco glass wool facing</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr"/>
       <c r="D2978" t="inlineStr"/>
       <c r="E2978" t="inlineStr">
         <is>
-          <t>kimco glass wool one side facing</t>
+          <t>kimco glass wool facing</t>
         </is>
       </c>
       <c r="F2978" t="inlineStr">
         <is>
-          <t>kimco glass wool one side facing</t>
+          <t>kimco glass wool facing</t>
         </is>
       </c>
     </row>
@@ -72329,19 +72329,19 @@
       </c>
       <c r="B2983" t="inlineStr">
         <is>
-          <t>transportation to the port only</t>
+          <t>transportation port</t>
         </is>
       </c>
       <c r="C2983" t="inlineStr"/>
       <c r="D2983" t="inlineStr"/>
       <c r="E2983" t="inlineStr">
         <is>
-          <t>transportation to the port only</t>
+          <t>transportation port</t>
         </is>
       </c>
       <c r="F2983" t="inlineStr">
         <is>
-          <t>transportation to the port only</t>
+          <t>transportation port</t>
         </is>
       </c>
     </row>
@@ -72665,19 +72665,19 @@
       </c>
       <c r="B2997" t="inlineStr">
         <is>
-          <t>supply of ac package ph</t>
+          <t>supply ac package ph</t>
         </is>
       </c>
       <c r="C2997" t="inlineStr"/>
       <c r="D2997" t="inlineStr"/>
       <c r="E2997" t="inlineStr">
         <is>
-          <t>supply of ac package ph</t>
+          <t>supply ac package ph</t>
         </is>
       </c>
       <c r="F2997" t="inlineStr">
         <is>
-          <t>supply of ac package ph</t>
+          <t>supply ac package ph</t>
         </is>
       </c>
     </row>
@@ -72689,19 +72689,19 @@
       </c>
       <c r="B2998" t="inlineStr">
         <is>
-          <t>supply of ac package ph</t>
+          <t>supply ac package ph</t>
         </is>
       </c>
       <c r="C2998" t="inlineStr"/>
       <c r="D2998" t="inlineStr"/>
       <c r="E2998" t="inlineStr">
         <is>
-          <t>supply of ac package ph</t>
+          <t>supply ac package ph</t>
         </is>
       </c>
       <c r="F2998" t="inlineStr">
         <is>
-          <t>supply of ac package ph</t>
+          <t>supply ac package ph</t>
         </is>
       </c>
     </row>
@@ -73073,19 +73073,19 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr"/>
       <c r="D3014" t="inlineStr"/>
       <c r="E3014" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="F3014" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
     </row>
@@ -73241,19 +73241,19 @@
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr"/>
       <c r="D3021" t="inlineStr"/>
       <c r="E3021" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="F3021" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
     </row>
@@ -73409,19 +73409,19 @@
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr"/>
       <c r="E3028" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="F3028" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
     </row>
@@ -73577,19 +73577,19 @@
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
       <c r="D3035" t="inlineStr"/>
       <c r="E3035" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
       <c r="F3035" t="inlineStr">
         <is>
-          <t>ot cp change over switch</t>
+          <t>ot cp change switch</t>
         </is>
       </c>
     </row>
@@ -73817,19 +73817,19 @@
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>austrian wood no</t>
+          <t>austrian wood</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr"/>
       <c r="E3045" t="inlineStr">
         <is>
-          <t>austrian wood no</t>
+          <t>austrian wood</t>
         </is>
       </c>
       <c r="F3045" t="inlineStr">
         <is>
-          <t>austrian wood no</t>
+          <t>austrian wood</t>
         </is>
       </c>
     </row>
@@ -73865,19 +73865,19 @@
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>swedish wood full thickness</t>
+          <t>swedish wood thickness</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr"/>
       <c r="E3047" t="inlineStr">
         <is>
-          <t>swedish wood full thickness</t>
+          <t>swedish wood thickness</t>
         </is>
       </c>
       <c r="F3047" t="inlineStr">
         <is>
-          <t>swedish wood full thickness</t>
+          <t>swedish wood thickness</t>
         </is>
       </c>
     </row>
@@ -73913,19 +73913,19 @@
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>austrian wood no</t>
+          <t>austrian wood</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr"/>
       <c r="E3049" t="inlineStr">
         <is>
-          <t>austrian wood no</t>
+          <t>austrian wood</t>
         </is>
       </c>
       <c r="F3049" t="inlineStr">
         <is>
-          <t>austrian wood no</t>
+          <t>austrian wood</t>
         </is>
       </c>
     </row>
@@ -73985,19 +73985,19 @@
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
       <c r="D3052" t="inlineStr"/>
       <c r="E3052" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="F3052" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
     </row>
@@ -74009,19 +74009,19 @@
       </c>
       <c r="B3053" t="inlineStr">
         <is>
-          <t>spin bike model no hc</t>
+          <t>spin bike model hc</t>
         </is>
       </c>
       <c r="C3053" t="inlineStr"/>
       <c r="D3053" t="inlineStr"/>
       <c r="E3053" t="inlineStr">
         <is>
-          <t>spin bike model no hc</t>
+          <t>spin bike model hc</t>
         </is>
       </c>
       <c r="F3053" t="inlineStr">
         <is>
-          <t>spin bike model no hc</t>
+          <t>spin bike model hc</t>
         </is>
       </c>
     </row>
@@ -74033,19 +74033,19 @@
       </c>
       <c r="B3054" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="C3054" t="inlineStr"/>
       <c r="D3054" t="inlineStr"/>
       <c r="E3054" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="F3054" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
     </row>
@@ -74057,19 +74057,19 @@
       </c>
       <c r="B3055" t="inlineStr">
         <is>
-          <t>fob charges ningbo to riyadh port</t>
+          <t>fob charges ningbo riyadh port</t>
         </is>
       </c>
       <c r="C3055" t="inlineStr"/>
       <c r="D3055" t="inlineStr"/>
       <c r="E3055" t="inlineStr">
         <is>
-          <t>fob charges ningbo to riyadh port</t>
+          <t>fob charges ningbo riyadh port</t>
         </is>
       </c>
       <c r="F3055" t="inlineStr">
         <is>
-          <t>fob charges ningbo to riyadh port</t>
+          <t>fob charges ningbo riyadh port</t>
         </is>
       </c>
     </row>
@@ -74081,19 +74081,19 @@
       </c>
       <c r="B3056" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="C3056" t="inlineStr"/>
       <c r="D3056" t="inlineStr"/>
       <c r="E3056" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="F3056" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
     </row>
@@ -74105,19 +74105,19 @@
       </c>
       <c r="B3057" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="C3057" t="inlineStr"/>
       <c r="D3057" t="inlineStr"/>
       <c r="E3057" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
       <c r="F3057" t="inlineStr">
         <is>
-          <t>motor power hp model no hc</t>
+          <t>motor power hp model hc</t>
         </is>
       </c>
     </row>
@@ -74129,19 +74129,19 @@
       </c>
       <c r="B3058" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="C3058" t="inlineStr"/>
       <c r="D3058" t="inlineStr"/>
       <c r="E3058" t="inlineStr">
         <is>
-          <t>لوح استانلس ستيل مجلوخ no</t>
+          <t>لوح استانلس ستيل مجلوخ</t>
         </is>
       </c>
       <c r="F3058" t="inlineStr">
         <is>
-          <t>لوح استان ستيل مجل no</t>
+          <t>لوح استان ستيل مجل</t>
         </is>
       </c>
     </row>
@@ -75912,12 +75912,12 @@
       <c r="D3132" t="inlineStr"/>
       <c r="E3132" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F3132" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -75936,12 +75936,12 @@
       <c r="D3133" t="inlineStr"/>
       <c r="E3133" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F3133" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -75960,12 +75960,12 @@
       <c r="D3134" t="inlineStr"/>
       <c r="E3134" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F3134" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -75984,12 +75984,12 @@
       <c r="D3135" t="inlineStr"/>
       <c r="E3135" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F3135" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -76152,12 +76152,12 @@
       <c r="D3142" t="inlineStr"/>
       <c r="E3142" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F3142" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
@@ -76176,12 +76176,12 @@
       <c r="D3143" t="inlineStr"/>
       <c r="E3143" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
       <c r="F3143" t="inlineStr">
         <is>
-          <t>black deformed straight bar sabic</t>
+          <t>black deformed straight bar سابك</t>
         </is>
       </c>
     </row>
